--- a/learn_erlang/apps/learn_erlang/data/2503-80Dayds.xlsx
+++ b/learn_erlang/apps/learn_erlang/data/2503-80Dayds.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13650"/>
+    <workbookView windowWidth="19050" windowHeight="6360" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="payment_2503" sheetId="2" r:id="rId1"/>
-    <sheet name="pay_line_2503" sheetId="3" r:id="rId2"/>
-    <sheet name="pos_2503" sheetId="5" r:id="rId3"/>
-    <sheet name="reel_2503" sheetId="6" r:id="rId4"/>
+    <sheet name="payment_2503" sheetId="1" r:id="rId1"/>
+    <sheet name="pay_line_2503" sheetId="2" r:id="rId2"/>
+    <sheet name="pos_2503" sheetId="3" r:id="rId3"/>
+    <sheet name="reel_2503" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="int.s">#REF!</definedName>
@@ -130,18 +130,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -186,9 +180,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -199,14 +193,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -214,23 +200,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,10 +215,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -257,8 +243,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,9 +253,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -287,9 +282,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,14 +326,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -319,49 +333,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="40">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -412,73 +392,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,73 +404,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,7 +428,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,13 +452,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,17 +571,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,25 +611,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,8 +652,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,2055 +673,2055 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="115" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="415" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="115" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="415" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="621" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="29" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="621" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="29" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="621" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="29" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="621" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="29" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="115" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="415" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2783,7 +2733,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="115" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="415" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2795,690 +2745,685 @@
   </cellXfs>
   <cellStyles count="678">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2 2 3 2 2 5" xfId="1"/>
-    <cellStyle name="常规 2 2 3 9" xfId="2"/>
-    <cellStyle name="常规 2 2 3 2 2 3 2" xfId="3"/>
-    <cellStyle name="常规 2 2 3 7 2" xfId="4"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="常规 2 2 2 2 2 3 3" xfId="6"/>
-    <cellStyle name="常规 2 3 2 2 7" xfId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="8" builtinId="38"/>
-    <cellStyle name="常规 2 5 2 4 3" xfId="9"/>
-    <cellStyle name="输入" xfId="10" builtinId="20"/>
-    <cellStyle name="常规 2 2 3 4 2 3" xfId="11"/>
-    <cellStyle name="常规 2 2 4" xfId="12"/>
-    <cellStyle name="常规 2 4 3 7" xfId="13"/>
-    <cellStyle name="常规 2 3 3 2 2 2 2" xfId="14"/>
-    <cellStyle name="货币" xfId="15" builtinId="4"/>
-    <cellStyle name="常规 2 2 4 3 2 3" xfId="16"/>
-    <cellStyle name="常规 2 11" xfId="17"/>
-    <cellStyle name="常规 2 2 2 6 4" xfId="18"/>
-    <cellStyle name="常规 2 3 3 2 3 3" xfId="19"/>
-    <cellStyle name="常规 2 4 2 2 2 2 2" xfId="20"/>
-    <cellStyle name="常规 2 2 4 2 6" xfId="21"/>
-    <cellStyle name="常规 2 6 3 2 2 3" xfId="22"/>
-    <cellStyle name="千位分隔[0]" xfId="23" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="24" builtinId="39"/>
-    <cellStyle name="差" xfId="25" builtinId="27"/>
-    <cellStyle name="常规 2 4 2 5 2 3" xfId="26"/>
-    <cellStyle name="千位分隔" xfId="27" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="28" builtinId="40"/>
-    <cellStyle name="超链接" xfId="29" builtinId="8"/>
-    <cellStyle name="常规 2 3 5 2" xfId="30"/>
-    <cellStyle name="常规 2 10 2 3" xfId="31"/>
-    <cellStyle name="百分比" xfId="32" builtinId="5"/>
-    <cellStyle name="常规 2 12 2" xfId="33"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9"/>
-    <cellStyle name="常规 2 2 5 5" xfId="35"/>
-    <cellStyle name="常规 2 5 2 2 3" xfId="36"/>
-    <cellStyle name="百分比 2" xfId="37"/>
-    <cellStyle name="常规 2 3 5 2 2" xfId="38"/>
-    <cellStyle name="注释" xfId="39" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="40" builtinId="36"/>
-    <cellStyle name="常规 2 2 3 2 2 3 2 3" xfId="41"/>
-    <cellStyle name="标题 4" xfId="42" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="43" builtinId="11"/>
-    <cellStyle name="常规 2 2 2 4 2 3" xfId="44"/>
-    <cellStyle name="标题" xfId="45" builtinId="15"/>
-    <cellStyle name="常规 2 3 3 2 5" xfId="46"/>
-    <cellStyle name="常规 2 2 9 2" xfId="47"/>
-    <cellStyle name="解释性文本" xfId="48" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="49" builtinId="16"/>
-    <cellStyle name="常规 2 4 3 3 2 2" xfId="50"/>
-    <cellStyle name="常规 2 2 3 2 4 3" xfId="51"/>
-    <cellStyle name="标题 2" xfId="52" builtinId="17"/>
-    <cellStyle name="常规 2 4 3 3 2 3" xfId="53"/>
-    <cellStyle name="常规 2 2 3 2 4 4" xfId="54"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="55" builtinId="32"/>
-    <cellStyle name="常规 2 2 3 2 2 3 2 2" xfId="56"/>
-    <cellStyle name="标题 3" xfId="57" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="58" builtinId="44"/>
-    <cellStyle name="常规 2 4 4 3" xfId="59"/>
-    <cellStyle name="常规 2 2 2 2 2 3" xfId="60"/>
-    <cellStyle name="输出" xfId="61" builtinId="21"/>
-    <cellStyle name="常规 2 3 3 5 3" xfId="62"/>
-    <cellStyle name="计算" xfId="63" builtinId="22"/>
-    <cellStyle name="常规 2 3 4 4" xfId="64"/>
-    <cellStyle name="检查单元格" xfId="65" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="66" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="67" builtinId="33"/>
-    <cellStyle name="常规 2 2 2 5" xfId="68"/>
-    <cellStyle name="链接单元格" xfId="69" builtinId="24"/>
-    <cellStyle name="常规 2 13" xfId="70"/>
-    <cellStyle name="汇总" xfId="71" builtinId="25"/>
-    <cellStyle name="常规 2 5 2 2 2 4" xfId="72"/>
-    <cellStyle name="好" xfId="73" builtinId="26"/>
-    <cellStyle name="常规 2 10 4" xfId="74"/>
-    <cellStyle name="适中" xfId="75" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="76" builtinId="46"/>
-    <cellStyle name="常规 2 3 2 2 4 2 3" xfId="77"/>
-    <cellStyle name="强调文字颜色 1" xfId="78" builtinId="29"/>
-    <cellStyle name="常规 2 2 2 4" xfId="79"/>
-    <cellStyle name="常规 2 3 2 2 5" xfId="80"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="81" builtinId="30"/>
-    <cellStyle name="常规 2 2 7 2 3" xfId="82"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="83" builtinId="31"/>
-    <cellStyle name="常规 2 4 4 3 2" xfId="84"/>
-    <cellStyle name="常规 2 2 2 2 2 3 2" xfId="85"/>
-    <cellStyle name="常规 2 3 2 2 6" xfId="86"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="87" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="88" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="89" builtinId="37"/>
-    <cellStyle name="常规 2 2 2 6" xfId="90"/>
-    <cellStyle name="强调文字颜色 4" xfId="91" builtinId="41"/>
-    <cellStyle name="常规 2 2 2 7" xfId="92"/>
-    <cellStyle name="常规 2 2 2 2 2 3 4" xfId="93"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="94" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="95" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="96" builtinId="45"/>
-    <cellStyle name="常规 2 2 2 8" xfId="97"/>
-    <cellStyle name="常规 2 2" xfId="98"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="99" builtinId="47"/>
-    <cellStyle name="常规 2 2 8 2" xfId="100"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="101" builtinId="48"/>
-    <cellStyle name="常规 2 2 3 2 2 2 2" xfId="102"/>
-    <cellStyle name="常规 2 2 3 6 2" xfId="103"/>
-    <cellStyle name="强调文字颜色 6" xfId="104" builtinId="49"/>
-    <cellStyle name="常规 2 2 2 9" xfId="105"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="106" builtinId="51"/>
-    <cellStyle name="常规 2 2 4 3 2 2" xfId="107"/>
-    <cellStyle name="常规 2 10" xfId="108"/>
-    <cellStyle name="常规 2 2 2 6 3" xfId="109"/>
-    <cellStyle name="常规 2 2 8 3" xfId="110"/>
-    <cellStyle name="常规 2 2 2 2 3 2 2" xfId="111"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="112" builtinId="52"/>
-    <cellStyle name="常规 2 4 2 2 4 4" xfId="113"/>
-    <cellStyle name="常规 2 11 2" xfId="114"/>
-    <cellStyle name="常规 2" xfId="115"/>
-    <cellStyle name="常规 2 4 2 2 3 4" xfId="116"/>
-    <cellStyle name="常规 2 10 2" xfId="117"/>
-    <cellStyle name="常规 2 10 2 2" xfId="118"/>
-    <cellStyle name="常规 2 10 3" xfId="119"/>
-    <cellStyle name="常规 2 11 3" xfId="120"/>
-    <cellStyle name="常规 2 12" xfId="121"/>
-    <cellStyle name="常规 2 14" xfId="122"/>
-    <cellStyle name="常规 2 2 10" xfId="123"/>
-    <cellStyle name="常规 2 2 4 2" xfId="124"/>
-    <cellStyle name="常规 2 2 11" xfId="125"/>
-    <cellStyle name="常规 2 2 4 3" xfId="126"/>
-    <cellStyle name="常规 2 2 12" xfId="127"/>
-    <cellStyle name="常规 2 2 2" xfId="128"/>
-    <cellStyle name="常规 2 4 3 5" xfId="129"/>
-    <cellStyle name="常规 2 2 2 2" xfId="130"/>
-    <cellStyle name="常规 2 4 3 5 2" xfId="131"/>
-    <cellStyle name="常规 2 3 6 2 3" xfId="132"/>
-    <cellStyle name="常规 2 3 3 2 2 4" xfId="133"/>
-    <cellStyle name="常规 2 4 4" xfId="134"/>
-    <cellStyle name="常规 2 2 2 2 2" xfId="135"/>
-    <cellStyle name="常规 2 4 4 2" xfId="136"/>
-    <cellStyle name="常规 2 2 2 2 2 2" xfId="137"/>
-    <cellStyle name="常规 2 4 4 2 2" xfId="138"/>
-    <cellStyle name="常规 2 2 2 2 2 2 2" xfId="139"/>
-    <cellStyle name="常规 2 4 4 2 2 2" xfId="140"/>
-    <cellStyle name="常规 2 4 2 8" xfId="141"/>
-    <cellStyle name="常规 2 2 2 2 2 2 2 2" xfId="142"/>
-    <cellStyle name="常规 2 4 4 2 2 3" xfId="143"/>
-    <cellStyle name="常规 2 2 3 2 4 2 2" xfId="144"/>
-    <cellStyle name="常规 2 2 2 2 2 2 2 3" xfId="145"/>
-    <cellStyle name="常规 2 4 4 2 3" xfId="146"/>
-    <cellStyle name="常规 2 2 2 2 2 2 3" xfId="147"/>
-    <cellStyle name="常规 2 4 4 2 4" xfId="148"/>
-    <cellStyle name="常规 2 2 2 2 2 2 4" xfId="149"/>
-    <cellStyle name="常规 2 2 4 2 4 3" xfId="150"/>
-    <cellStyle name="常规 2 2 2 2 2 3 2 2" xfId="151"/>
-    <cellStyle name="常规 2 2 3 2 5 2 2" xfId="152"/>
-    <cellStyle name="常规 2 2 2 2 2 3 2 3" xfId="153"/>
-    <cellStyle name="常规 2 2 2 2 2 4" xfId="154"/>
-    <cellStyle name="常规 2 2 2 2 2 4 2" xfId="155"/>
-    <cellStyle name="常规 2 2 4 2 3 2 2" xfId="156"/>
-    <cellStyle name="常规 2 2 2 2 2 4 3" xfId="157"/>
-    <cellStyle name="常规 2 4 4 5" xfId="158"/>
-    <cellStyle name="常规 2 3 2" xfId="159"/>
-    <cellStyle name="常规 2 2 2 2 2 5" xfId="160"/>
-    <cellStyle name="常规 2 3 3" xfId="161"/>
-    <cellStyle name="常规 2 2 2 2 2 6" xfId="162"/>
-    <cellStyle name="常规 2 2 2 2 3" xfId="163"/>
-    <cellStyle name="常规 2 2 2 2 3 2" xfId="164"/>
-    <cellStyle name="常规 2 2 8 4" xfId="165"/>
-    <cellStyle name="常规 2 2 2 2 3 2 3" xfId="166"/>
-    <cellStyle name="常规 2 2 2 2 3 3" xfId="167"/>
-    <cellStyle name="常规 2 2 2 3 2 2 2" xfId="168"/>
-    <cellStyle name="常规 2 2 2 2 3 4" xfId="169"/>
-    <cellStyle name="常规 2 2 2 2 4" xfId="170"/>
-    <cellStyle name="常规 2 4 2 2 4" xfId="171"/>
-    <cellStyle name="常规 2 2 2 2 4 2" xfId="172"/>
-    <cellStyle name="常规 2 4 2 2 4 2" xfId="173"/>
-    <cellStyle name="常规 2 3 4 2 2 3" xfId="174"/>
-    <cellStyle name="常规 2 2 2 2 4 2 2" xfId="175"/>
-    <cellStyle name="常规 2 4 2 2 4 3" xfId="176"/>
-    <cellStyle name="常规 2 2 2 2 4 2 3" xfId="177"/>
-    <cellStyle name="常规 2 4 2 3 2 2" xfId="178"/>
-    <cellStyle name="常规 2 4 2 2 5" xfId="179"/>
-    <cellStyle name="常规 2 2 2 2 4 3" xfId="180"/>
-    <cellStyle name="常规 2 4 2 3 2 3" xfId="181"/>
-    <cellStyle name="常规 2 4 2 2 6" xfId="182"/>
-    <cellStyle name="常规 2 2 2 2 4 4" xfId="183"/>
-    <cellStyle name="常规 2 2 2 2 5" xfId="184"/>
-    <cellStyle name="常规 2 4 2 3 4" xfId="185"/>
-    <cellStyle name="常规 2 2 2 2 5 2" xfId="186"/>
-    <cellStyle name="常规 2 2 2 2 6 3" xfId="187"/>
-    <cellStyle name="常规 2 2 2 2 5 2 2" xfId="188"/>
-    <cellStyle name="常规 2 2 2 2 5 2 3" xfId="189"/>
-    <cellStyle name="常规 2 2 2 2 5 3" xfId="190"/>
-    <cellStyle name="常规 2 2 2 2 5 4" xfId="191"/>
-    <cellStyle name="常规 2 4 8" xfId="192"/>
-    <cellStyle name="常规 2 3 4 3 2" xfId="193"/>
-    <cellStyle name="常规 2 2 2 2 6" xfId="194"/>
-    <cellStyle name="常规 2 4 2 4 4" xfId="195"/>
-    <cellStyle name="常规 2 2 2 2 6 2" xfId="196"/>
-    <cellStyle name="常规 2 4 9" xfId="197"/>
-    <cellStyle name="常规 2 3 4 3 3" xfId="198"/>
-    <cellStyle name="常规 2 2 2 2 7" xfId="199"/>
-    <cellStyle name="常规 2 2 2 2 8" xfId="200"/>
-    <cellStyle name="常规 2 2 2 3" xfId="201"/>
-    <cellStyle name="常规 2 4 3 5 3" xfId="202"/>
-    <cellStyle name="常规 2 3 2 2 4 2 2" xfId="203"/>
-    <cellStyle name="常规 2 2 2 3 2" xfId="204"/>
-    <cellStyle name="常规 2 2 2 3 2 2" xfId="205"/>
-    <cellStyle name="常规 2 4 2" xfId="206"/>
-    <cellStyle name="常规 2 2 2 3 2 2 3" xfId="207"/>
-    <cellStyle name="常规 2 2 2 3 2 3" xfId="208"/>
-    <cellStyle name="常规 2 2 2 3 2 4" xfId="209"/>
-    <cellStyle name="常规 2 2 2 3 3" xfId="210"/>
-    <cellStyle name="常规 2 2 2 3 3 2" xfId="211"/>
-    <cellStyle name="常规 2 2 2 3 3 4" xfId="212"/>
-    <cellStyle name="常规 2 2 2 3 3 2 2" xfId="213"/>
-    <cellStyle name="常规 2 2 2 3 3 2 3" xfId="214"/>
-    <cellStyle name="常规 2 2 2 3 3 3" xfId="215"/>
-    <cellStyle name="常规 2 2 2 3 4" xfId="216"/>
-    <cellStyle name="常规 2 4 3 2 4" xfId="217"/>
-    <cellStyle name="常规 2 2 2 3 4 2" xfId="218"/>
-    <cellStyle name="常规 2 4 3 2 5" xfId="219"/>
-    <cellStyle name="常规 2 4 2 4 2 2" xfId="220"/>
-    <cellStyle name="常规 2 2 2 3 4 3" xfId="221"/>
-    <cellStyle name="常规 2 2 2 3 5" xfId="222"/>
-    <cellStyle name="常规 2 2 2 3 6" xfId="223"/>
-    <cellStyle name="常规 2 2 2 4 2" xfId="224"/>
-    <cellStyle name="常规 2 2 2 4 2 2" xfId="225"/>
-    <cellStyle name="常规 2 2 2 4 3" xfId="226"/>
-    <cellStyle name="常规 2 3 2 3 2 2" xfId="227"/>
-    <cellStyle name="常规 2 2 2 4 4" xfId="228"/>
-    <cellStyle name="常规 2 2 2 5 2" xfId="229"/>
-    <cellStyle name="常规 2 5 2 3 3" xfId="230"/>
-    <cellStyle name="常规 2 2 2 5 2 2" xfId="231"/>
-    <cellStyle name="常规 2 2 3 2 5 2" xfId="232"/>
-    <cellStyle name="常规 2 5 2 3 4" xfId="233"/>
-    <cellStyle name="常规 2 2 2 5 2 3" xfId="234"/>
-    <cellStyle name="常规 2 2 2 5 3" xfId="235"/>
-    <cellStyle name="常规 2 2 2 5 4" xfId="236"/>
-    <cellStyle name="常规 2 2 2 6 2" xfId="237"/>
-    <cellStyle name="常规 2 4 2 2 2 4" xfId="238"/>
-    <cellStyle name="常规 2 5 3 3 3" xfId="239"/>
-    <cellStyle name="常规 2 2 2 6 2 2" xfId="240"/>
-    <cellStyle name="常规 2 2 2 6 2 3" xfId="241"/>
-    <cellStyle name="常规 2 2 2 7 2" xfId="242"/>
-    <cellStyle name="常规 2 2 2 7 3" xfId="243"/>
-    <cellStyle name="常规 2 2 3" xfId="244"/>
-    <cellStyle name="常规 2 2 3 4 2 2" xfId="245"/>
-    <cellStyle name="常规 2 4 3 6" xfId="246"/>
-    <cellStyle name="常规 2 4 2 2 2 2 3" xfId="247"/>
-    <cellStyle name="常规 2 2 3 2" xfId="248"/>
-    <cellStyle name="常规 2 2 3 2 2" xfId="249"/>
-    <cellStyle name="常规 2 2 3 2 2 2" xfId="250"/>
-    <cellStyle name="常规 2 2 3 6" xfId="251"/>
-    <cellStyle name="常规 2 4 3 2 2 4" xfId="252"/>
-    <cellStyle name="常规 2 6 3 3 3" xfId="253"/>
-    <cellStyle name="常规 2 2 3 2 2 2 2 2" xfId="254"/>
-    <cellStyle name="常规 2 2 3 6 2 2" xfId="255"/>
-    <cellStyle name="常规 2 2 3 2 2 2 2 3" xfId="256"/>
-    <cellStyle name="常规 2 2 3 6 2 3" xfId="257"/>
-    <cellStyle name="常规 2 2 4 4 2 2" xfId="258"/>
-    <cellStyle name="常规 2 2 3 2 2 2 3" xfId="259"/>
-    <cellStyle name="常规 2 2 3 6 3" xfId="260"/>
-    <cellStyle name="常规 2 2 4 4 2 3" xfId="261"/>
-    <cellStyle name="常规 2 2 3 2 2 2 4" xfId="262"/>
-    <cellStyle name="常规 2 2 3 6 4" xfId="263"/>
-    <cellStyle name="常规 2 2 3 2 2 3" xfId="264"/>
-    <cellStyle name="常规 2 2 3 7" xfId="265"/>
-    <cellStyle name="常规 2 2 3 2 2 3 3" xfId="266"/>
-    <cellStyle name="常规 2 2 3 7 3" xfId="267"/>
-    <cellStyle name="常规 2 2 3 2 2 6" xfId="268"/>
-    <cellStyle name="常规 2 2 3 2 2 3 4" xfId="269"/>
-    <cellStyle name="常规 2 2 3 2 2 4" xfId="270"/>
-    <cellStyle name="常规 2 2 3 8" xfId="271"/>
-    <cellStyle name="常规 2 2 3 2 2 4 2" xfId="272"/>
-    <cellStyle name="常规 2 2 3 2 2 4 3" xfId="273"/>
-    <cellStyle name="常规 2 2 3 2 3" xfId="274"/>
-    <cellStyle name="常规 2 2 3 2 3 2" xfId="275"/>
-    <cellStyle name="常规 2 2 4 6" xfId="276"/>
-    <cellStyle name="常规 2 2 3 2 3 2 2" xfId="277"/>
-    <cellStyle name="常规 2 2 4 6 2" xfId="278"/>
-    <cellStyle name="常规 2 2 3 2 3 2 3" xfId="279"/>
-    <cellStyle name="常规 2 2 4 6 3" xfId="280"/>
-    <cellStyle name="常规 2 2 4 5 2 2" xfId="281"/>
-    <cellStyle name="常规 2 2 3 2 3 3" xfId="282"/>
-    <cellStyle name="常规 2 2 4 7" xfId="283"/>
-    <cellStyle name="常规 2 2 3 2 3 4" xfId="284"/>
-    <cellStyle name="常规 2 2 4 8" xfId="285"/>
-    <cellStyle name="常规 2 2 3 2 4" xfId="286"/>
-    <cellStyle name="常规 2 2 3 2 4 2" xfId="287"/>
-    <cellStyle name="常规 2 2 5 6" xfId="288"/>
-    <cellStyle name="常规 2 2 3 2 4 2 3" xfId="289"/>
-    <cellStyle name="常规 2 2 3 2 5" xfId="290"/>
-    <cellStyle name="常规 2 2 3 2 5 2 3" xfId="291"/>
-    <cellStyle name="常规 2 2 3 2 5 3" xfId="292"/>
-    <cellStyle name="常规 2 2 3 2 5 4" xfId="293"/>
-    <cellStyle name="常规 2 2 3 2 6" xfId="294"/>
-    <cellStyle name="常规 2 2 3 2 6 2" xfId="295"/>
-    <cellStyle name="常规 2 2 3 2 6 3" xfId="296"/>
-    <cellStyle name="常规 2 4 2 6 2" xfId="297"/>
-    <cellStyle name="常规 2 2 3 2 7" xfId="298"/>
-    <cellStyle name="常规 2 4 2 6 3" xfId="299"/>
-    <cellStyle name="常规 2 2 3 2 8" xfId="300"/>
-    <cellStyle name="常规 2 2 3 3" xfId="301"/>
-    <cellStyle name="常规 2 2 3 3 2" xfId="302"/>
-    <cellStyle name="常规 2 2 3 3 2 2" xfId="303"/>
-    <cellStyle name="常规 2 3 3 6" xfId="304"/>
-    <cellStyle name="常规 2 3 2 2 3 4" xfId="305"/>
-    <cellStyle name="常规 2 2 3 3 2 2 2" xfId="306"/>
-    <cellStyle name="常规 2 2 3 3 2 2 3" xfId="307"/>
-    <cellStyle name="常规 2 2 3 3 2 3" xfId="308"/>
-    <cellStyle name="常规 2 3 3 7" xfId="309"/>
-    <cellStyle name="常规 2 2 3 3 2 4" xfId="310"/>
-    <cellStyle name="常规 2 2 3 3 3" xfId="311"/>
-    <cellStyle name="常规 2 2 3 3 3 2" xfId="312"/>
-    <cellStyle name="常规 2 2 3 3 3 2 2" xfId="313"/>
-    <cellStyle name="常规 2 2 3 3 3 2 3" xfId="314"/>
-    <cellStyle name="常规 2 2 3 3 3 3" xfId="315"/>
-    <cellStyle name="常规 2 2 3 3 3 4" xfId="316"/>
-    <cellStyle name="常规 2 2 3 3 4" xfId="317"/>
-    <cellStyle name="常规 2 2 3 3 4 2" xfId="318"/>
-    <cellStyle name="常规 2 4 3 4 2 2" xfId="319"/>
-    <cellStyle name="常规 2 2 3 3 4 3" xfId="320"/>
-    <cellStyle name="常规 2 2 3 3 5" xfId="321"/>
-    <cellStyle name="常规 2 2 3 3 6" xfId="322"/>
-    <cellStyle name="常规 2 2 3 4" xfId="323"/>
-    <cellStyle name="常规 2 2 3 4 2" xfId="324"/>
-    <cellStyle name="常规 2 2 3 4 3" xfId="325"/>
-    <cellStyle name="常规 2 3 2 4 2 2" xfId="326"/>
-    <cellStyle name="常规 2 2 3 4 4" xfId="327"/>
-    <cellStyle name="常规 2 2 3 5" xfId="328"/>
-    <cellStyle name="常规 2 2 3 5 2" xfId="329"/>
-    <cellStyle name="常规 2 6 2 3 3" xfId="330"/>
-    <cellStyle name="常规 2 2 3 5 2 2" xfId="331"/>
-    <cellStyle name="常规 2 2 3 5 2 3" xfId="332"/>
-    <cellStyle name="常规 2 2 3 5 3" xfId="333"/>
-    <cellStyle name="常规 2 2 3 5 4" xfId="334"/>
-    <cellStyle name="常规 2 2 4 2 2" xfId="335"/>
-    <cellStyle name="常规 2 2 4 2 2 2" xfId="336"/>
-    <cellStyle name="常规 2 4 3 4 3" xfId="337"/>
-    <cellStyle name="常规 2 2 4 2 2 2 2" xfId="338"/>
-    <cellStyle name="常规 2 4 3 4 4" xfId="339"/>
-    <cellStyle name="常规 2 2 4 2 2 2 3" xfId="340"/>
-    <cellStyle name="常规 2 3 2 2 4 2" xfId="341"/>
-    <cellStyle name="常规 2 2 4 2 2 3" xfId="342"/>
-    <cellStyle name="常规 2 3 2 2 4 3" xfId="343"/>
-    <cellStyle name="常规 2 2 4 2 2 4" xfId="344"/>
-    <cellStyle name="常规 2 2 4 2 3" xfId="345"/>
-    <cellStyle name="常规 2 2 4 2 3 2" xfId="346"/>
-    <cellStyle name="常规 2 2 4 2 3 2 3" xfId="347"/>
-    <cellStyle name="常规 2 3 2 2 5 2" xfId="348"/>
-    <cellStyle name="常规 2 2 4 2 3 3" xfId="349"/>
-    <cellStyle name="常规 2 3 2 2 5 3" xfId="350"/>
-    <cellStyle name="常规 2 2 4 2 3 4" xfId="351"/>
-    <cellStyle name="常规 2 2 4 2 4" xfId="352"/>
-    <cellStyle name="常规 2 2 4 2 4 2" xfId="353"/>
-    <cellStyle name="常规 2 3 3 2 3 2" xfId="354"/>
-    <cellStyle name="常规 2 2 4 2 5" xfId="355"/>
-    <cellStyle name="常规 2 2 4 3 2" xfId="356"/>
-    <cellStyle name="常规 2 2 4 3 3" xfId="357"/>
-    <cellStyle name="常规 2 2 5 2 2 2" xfId="358"/>
-    <cellStyle name="常规 2 2 4 3 4" xfId="359"/>
-    <cellStyle name="常规 2 2 4 4" xfId="360"/>
-    <cellStyle name="常规 2 2 4 4 2" xfId="361"/>
-    <cellStyle name="常规 2 2 4 4 3" xfId="362"/>
-    <cellStyle name="常规 2 3 2 5 2 2" xfId="363"/>
-    <cellStyle name="常规 2 2 4 4 4" xfId="364"/>
-    <cellStyle name="常规 2 2 4 5" xfId="365"/>
-    <cellStyle name="常规 2 2 4 5 2" xfId="366"/>
-    <cellStyle name="常规 2 2 4 5 2 3" xfId="367"/>
-    <cellStyle name="常规 2 2 4 5 3" xfId="368"/>
-    <cellStyle name="常规 2 2 4 5 4" xfId="369"/>
-    <cellStyle name="常规 2 3 3 2 2 2 3" xfId="370"/>
-    <cellStyle name="常规 2 2 5" xfId="371"/>
-    <cellStyle name="常规 2 2 5 2" xfId="372"/>
-    <cellStyle name="常规 2 2 5 2 2" xfId="373"/>
-    <cellStyle name="常规 2 2 5 2 2 3" xfId="374"/>
-    <cellStyle name="常规 2 3 2 5 2" xfId="375"/>
-    <cellStyle name="常规 2 2 5 2 3" xfId="376"/>
-    <cellStyle name="常规 2 3 2 5 3" xfId="377"/>
-    <cellStyle name="常规 2 2 5 2 4" xfId="378"/>
-    <cellStyle name="常规 2 2 5 3" xfId="379"/>
-    <cellStyle name="常规 2 2 5 3 2" xfId="380"/>
-    <cellStyle name="常规 2 3 2 6 3" xfId="381"/>
-    <cellStyle name="常规 2 2 5 3 4" xfId="382"/>
-    <cellStyle name="常规 2 2 5 3 2 2" xfId="383"/>
-    <cellStyle name="常规 2 2 5 3 2 3" xfId="384"/>
-    <cellStyle name="常规 2 3 2 6 2" xfId="385"/>
-    <cellStyle name="常规 2 2 5 3 3" xfId="386"/>
-    <cellStyle name="常规 2 2 5 4" xfId="387"/>
-    <cellStyle name="常规 2 2 5 4 2" xfId="388"/>
-    <cellStyle name="常规 2 2 5 4 3" xfId="389"/>
-    <cellStyle name="常规 2 2 6" xfId="390"/>
-    <cellStyle name="常规 2 2 6 2" xfId="391"/>
-    <cellStyle name="常规 2 3 2 2 2 3" xfId="392"/>
-    <cellStyle name="常规 2 2 6 2 2" xfId="393"/>
-    <cellStyle name="常规 2 3 3 5 2" xfId="394"/>
-    <cellStyle name="常规 2 3 2 2 2 4" xfId="395"/>
-    <cellStyle name="常规 2 2 6 2 3" xfId="396"/>
-    <cellStyle name="常规 2 2 6 3" xfId="397"/>
-    <cellStyle name="常规 2 2 6 4" xfId="398"/>
-    <cellStyle name="常规 2 2 7" xfId="399"/>
-    <cellStyle name="常规 2 2 7 2" xfId="400"/>
-    <cellStyle name="常规 2 3 2 3 2 3" xfId="401"/>
-    <cellStyle name="常规 2 2 7 2 2" xfId="402"/>
-    <cellStyle name="常规 2 2 7 3" xfId="403"/>
-    <cellStyle name="常规 2 2 7 4" xfId="404"/>
-    <cellStyle name="常规 2 2 8" xfId="405"/>
-    <cellStyle name="常规 2 3 2 4 2 3" xfId="406"/>
-    <cellStyle name="常规 2 2 8 2 2" xfId="407"/>
-    <cellStyle name="常规 2 2 8 2 3" xfId="408"/>
-    <cellStyle name="常规 2 2 9" xfId="409"/>
-    <cellStyle name="常规 2 2 9 3" xfId="410"/>
-    <cellStyle name="常规 2 3" xfId="411"/>
-    <cellStyle name="常规 2 3 2 2" xfId="412"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="413"/>
-    <cellStyle name="常规 2 3 2 2 2 2" xfId="414"/>
-    <cellStyle name="常规 2 3 4 2 4" xfId="415"/>
-    <cellStyle name="常规 2 3 2 2 2 2 2" xfId="416"/>
-    <cellStyle name="常规 2 3 2 2 2 2 3" xfId="417"/>
-    <cellStyle name="常规 2 3 2 2 3" xfId="418"/>
-    <cellStyle name="常规 2 3 2 2 3 2" xfId="419"/>
-    <cellStyle name="常规 2 4 2 5 3" xfId="420"/>
-    <cellStyle name="常规 2 3 2 2 3 2 2" xfId="421"/>
-    <cellStyle name="常规 2 4 2 5 4" xfId="422"/>
-    <cellStyle name="常规 2 3 2 2 3 2 3" xfId="423"/>
-    <cellStyle name="常规 2 3 2 2 3 3" xfId="424"/>
-    <cellStyle name="常规 2 3 2 2 4" xfId="425"/>
-    <cellStyle name="常规 2 3 2 2 4 4" xfId="426"/>
-    <cellStyle name="常规 2 3 2 3" xfId="427"/>
-    <cellStyle name="常规 2 3 2 3 2" xfId="428"/>
-    <cellStyle name="常规 2 3 2 3 3" xfId="429"/>
-    <cellStyle name="常规 2 3 2 3 4" xfId="430"/>
-    <cellStyle name="常规 2 3 2 4" xfId="431"/>
-    <cellStyle name="常规 2 3 2 4 2" xfId="432"/>
-    <cellStyle name="常规 2 3 2 4 3" xfId="433"/>
-    <cellStyle name="常规 2 3 3 3 2 2" xfId="434"/>
-    <cellStyle name="常规 2 3 2 4 4" xfId="435"/>
-    <cellStyle name="常规 2 3 2 5" xfId="436"/>
-    <cellStyle name="常规 2 3 2 5 2 3" xfId="437"/>
-    <cellStyle name="常规 2 3 2 5 4" xfId="438"/>
-    <cellStyle name="常规 2 3 2 6" xfId="439"/>
-    <cellStyle name="常规 2 3 2 7" xfId="440"/>
-    <cellStyle name="常规 2 3 2 8" xfId="441"/>
-    <cellStyle name="常规 2 4 2 2 3 2 3" xfId="442"/>
-    <cellStyle name="常规 2 3 3 2" xfId="443"/>
-    <cellStyle name="常规 2 3 3 2 2" xfId="444"/>
-    <cellStyle name="常规 2 3 3 2 2 2" xfId="445"/>
-    <cellStyle name="常规 2 3 6 2 2" xfId="446"/>
-    <cellStyle name="常规 2 3 3 2 2 3" xfId="447"/>
-    <cellStyle name="常规 2 3 3 2 3" xfId="448"/>
-    <cellStyle name="常规 2 3 3 2 4" xfId="449"/>
-    <cellStyle name="常规 2 3 3 3" xfId="450"/>
-    <cellStyle name="常规 2 3 3 3 2" xfId="451"/>
-    <cellStyle name="常规 2 3 3 3 2 3" xfId="452"/>
-    <cellStyle name="常规 2 3 3 3 3" xfId="453"/>
-    <cellStyle name="常规 2 3 3 3 4" xfId="454"/>
-    <cellStyle name="常规 2 3 3 4" xfId="455"/>
-    <cellStyle name="常规 2 3 3 4 2" xfId="456"/>
-    <cellStyle name="常规 2 3 3 4 4" xfId="457"/>
-    <cellStyle name="常规 2 3 3 4 2 2" xfId="458"/>
-    <cellStyle name="常规 2 3 3 4 2 3" xfId="459"/>
-    <cellStyle name="常规 2 3 3 4 3" xfId="460"/>
-    <cellStyle name="常规 2 3 3 5" xfId="461"/>
-    <cellStyle name="常规 2 3 4" xfId="462"/>
-    <cellStyle name="常规 2 3 4 2" xfId="463"/>
-    <cellStyle name="常规 2 3 4 2 2" xfId="464"/>
-    <cellStyle name="常规 2 3 8" xfId="465"/>
-    <cellStyle name="常规 2 3 4 2 2 2" xfId="466"/>
-    <cellStyle name="常规 2 3 4 2 3" xfId="467"/>
-    <cellStyle name="常规 2 3 9" xfId="468"/>
-    <cellStyle name="常规 2 3 4 3" xfId="469"/>
-    <cellStyle name="常规 2 3 4 5" xfId="470"/>
-    <cellStyle name="常规 2 3 5" xfId="471"/>
-    <cellStyle name="常规 2 4 2 5 2" xfId="472"/>
-    <cellStyle name="常规 2 3 5 2 3" xfId="473"/>
-    <cellStyle name="常规 2 3 5 3" xfId="474"/>
-    <cellStyle name="常规 2 3 5 4" xfId="475"/>
-    <cellStyle name="常规 2 3 6" xfId="476"/>
-    <cellStyle name="常规 2 3 6 2" xfId="477"/>
-    <cellStyle name="常规 2 4 2 2 2 2" xfId="478"/>
-    <cellStyle name="常规 2 3 6 3" xfId="479"/>
-    <cellStyle name="常规 2 4 2 2 2 3" xfId="480"/>
-    <cellStyle name="常规 2 3 6 4" xfId="481"/>
-    <cellStyle name="常规 2 3 7" xfId="482"/>
-    <cellStyle name="常规 2 3 7 2" xfId="483"/>
-    <cellStyle name="常规 2 4 2 2 3 2" xfId="484"/>
-    <cellStyle name="常规 2 3 7 3" xfId="485"/>
-    <cellStyle name="常规 2 4" xfId="486"/>
-    <cellStyle name="常规 2 4 2 2" xfId="487"/>
-    <cellStyle name="常规 2 4 2 2 2" xfId="488"/>
-    <cellStyle name="常规 2 4 2 2 3" xfId="489"/>
-    <cellStyle name="常规 2 4 2 2 3 2 2" xfId="490"/>
-    <cellStyle name="常规 2 4 2 2 3 3" xfId="491"/>
-    <cellStyle name="常规 2 4 2 2 4 2 2" xfId="492"/>
-    <cellStyle name="常规 2 4 3 2" xfId="493"/>
-    <cellStyle name="常规 2 4 2 2 4 2 3" xfId="494"/>
-    <cellStyle name="常规 2 4 2 2 5 2" xfId="495"/>
-    <cellStyle name="常规 2 4 2 2 5 3" xfId="496"/>
-    <cellStyle name="常规 2 4 2 2 7" xfId="497"/>
-    <cellStyle name="常规 2 4 2 3" xfId="498"/>
-    <cellStyle name="常规 2 4 2 3 2" xfId="499"/>
-    <cellStyle name="常规 2 4 2 3 3" xfId="500"/>
-    <cellStyle name="常规 2 4 2 4" xfId="501"/>
-    <cellStyle name="常规 2 4 2 4 2" xfId="502"/>
-    <cellStyle name="常规 2 4 2 4 2 3" xfId="503"/>
-    <cellStyle name="常规 2 4 2 4 3" xfId="504"/>
-    <cellStyle name="常规 2 4 2 5" xfId="505"/>
-    <cellStyle name="常规 2 4 2 5 2 2" xfId="506"/>
-    <cellStyle name="常规 2 4 2 6" xfId="507"/>
-    <cellStyle name="常规 2 4 2 7" xfId="508"/>
-    <cellStyle name="常规 2 4 3" xfId="509"/>
-    <cellStyle name="常规 2 4 3 2 2" xfId="510"/>
-    <cellStyle name="常规 2 4 3 2 2 2" xfId="511"/>
-    <cellStyle name="常规 2 4 3 2 2 2 2" xfId="512"/>
-    <cellStyle name="常规 2 4 3 2 3 3" xfId="513"/>
-    <cellStyle name="常规 2 4 3 2 2 2 3" xfId="514"/>
-    <cellStyle name="常规 2 4 3 2 2 3" xfId="515"/>
-    <cellStyle name="常规 2 4 3 2 3" xfId="516"/>
-    <cellStyle name="常规 2 4 3 2 3 2" xfId="517"/>
-    <cellStyle name="常规 2 4 3 3" xfId="518"/>
-    <cellStyle name="常规 2 4 3 3 2" xfId="519"/>
-    <cellStyle name="常规 2 4 3 3 3" xfId="520"/>
-    <cellStyle name="常规 2 4 3 3 4" xfId="521"/>
-    <cellStyle name="常规 2 4 3 4" xfId="522"/>
-    <cellStyle name="常规 2 4 3 4 2" xfId="523"/>
-    <cellStyle name="常规 2 4 3 4 2 3" xfId="524"/>
-    <cellStyle name="常规 2 4 4 3 3" xfId="525"/>
-    <cellStyle name="常规 2 4 4 4" xfId="526"/>
-    <cellStyle name="常规 2 4 5" xfId="527"/>
-    <cellStyle name="常规 2 4 5 2" xfId="528"/>
-    <cellStyle name="常规 2 4 5 2 2" xfId="529"/>
-    <cellStyle name="常规 2 4 5 2 3" xfId="530"/>
-    <cellStyle name="常规 2 4 5 3" xfId="531"/>
-    <cellStyle name="常规 2 4 5 4" xfId="532"/>
-    <cellStyle name="常规 2 4 6" xfId="533"/>
-    <cellStyle name="常规 2 4 6 2" xfId="534"/>
-    <cellStyle name="常规 2 4 6 2 2" xfId="535"/>
-    <cellStyle name="常规 2 4 6 2 3" xfId="536"/>
-    <cellStyle name="常规 2 4 6 3" xfId="537"/>
-    <cellStyle name="常规 2 4 6 4" xfId="538"/>
-    <cellStyle name="常规 2 4 7" xfId="539"/>
-    <cellStyle name="常规 2 4 7 2" xfId="540"/>
-    <cellStyle name="常规 2 4 7 3" xfId="541"/>
-    <cellStyle name="常规 2 5" xfId="542"/>
-    <cellStyle name="常规 2 5 2" xfId="543"/>
-    <cellStyle name="常规 2 5 2 2" xfId="544"/>
-    <cellStyle name="常规 2 5 2 2 2" xfId="545"/>
-    <cellStyle name="常规 2 5 2 2 2 2" xfId="546"/>
-    <cellStyle name="常规 2 5 2 2 2 2 2" xfId="547"/>
-    <cellStyle name="常规 2 5 2 2 2 2 3" xfId="548"/>
-    <cellStyle name="常规 2 5 2 2 2 3" xfId="549"/>
-    <cellStyle name="常规 2 5 2 2 3 2" xfId="550"/>
-    <cellStyle name="常规 2 5 2 2 3 3" xfId="551"/>
-    <cellStyle name="常规 2 5 2 2 4" xfId="552"/>
-    <cellStyle name="常规 2 5 2 2 5" xfId="553"/>
-    <cellStyle name="常规 2 5 2 3" xfId="554"/>
-    <cellStyle name="常规 2 5 2 3 2" xfId="555"/>
-    <cellStyle name="常规 2 5 2 3 2 2" xfId="556"/>
-    <cellStyle name="常规 2 5 2 3 2 3" xfId="557"/>
-    <cellStyle name="常规 2 5 2 4" xfId="558"/>
-    <cellStyle name="常规 2 5 2 4 2" xfId="559"/>
-    <cellStyle name="常规 2 5 2 4 2 2" xfId="560"/>
-    <cellStyle name="常规 2 5 2 4 2 3" xfId="561"/>
-    <cellStyle name="常规 2 5 2 4 4" xfId="562"/>
-    <cellStyle name="常规 2 6 2 2 2" xfId="563"/>
-    <cellStyle name="常规 2 5 2 5" xfId="564"/>
-    <cellStyle name="常规 2 6 2 2 2 2" xfId="565"/>
-    <cellStyle name="常规 2 5 2 5 2" xfId="566"/>
-    <cellStyle name="常规 2 6 2 2 2 3" xfId="567"/>
-    <cellStyle name="常规 2 5 2 5 3" xfId="568"/>
-    <cellStyle name="常规 2 6 2 2 3" xfId="569"/>
-    <cellStyle name="常规 2 5 2 6" xfId="570"/>
-    <cellStyle name="常规 2 6 2 2 4" xfId="571"/>
-    <cellStyle name="常规 2 5 2 7" xfId="572"/>
-    <cellStyle name="常规 2 5 3" xfId="573"/>
-    <cellStyle name="常规 2 5 3 2" xfId="574"/>
-    <cellStyle name="常规 2 5 3 2 2" xfId="575"/>
-    <cellStyle name="常规 2 5 3 2 2 2" xfId="576"/>
-    <cellStyle name="常规 2 5 3 2 2 3" xfId="577"/>
-    <cellStyle name="常规 2 5 3 2 3" xfId="578"/>
-    <cellStyle name="常规 2 5 3 2 4" xfId="579"/>
-    <cellStyle name="常规 2 5 3 3" xfId="580"/>
-    <cellStyle name="常规 2 5 3 3 2" xfId="581"/>
-    <cellStyle name="常规 2 5 3 4" xfId="582"/>
-    <cellStyle name="常规 2 6 2 3 2" xfId="583"/>
-    <cellStyle name="常规 2 5 3 5" xfId="584"/>
-    <cellStyle name="常规 2 5 4" xfId="585"/>
-    <cellStyle name="常规 2 5 4 2" xfId="586"/>
-    <cellStyle name="常规 2 5 4 2 2" xfId="587"/>
-    <cellStyle name="常规 2 5 4 2 2 2" xfId="588"/>
-    <cellStyle name="常规 2 5 4 2 2 3" xfId="589"/>
-    <cellStyle name="常规 2 5 4 2 3" xfId="590"/>
-    <cellStyle name="常规 2 5 4 2 4" xfId="591"/>
-    <cellStyle name="常规 2 5 4 3" xfId="592"/>
-    <cellStyle name="常规 2 5 4 3 2" xfId="593"/>
-    <cellStyle name="常规 2 5 4 3 3" xfId="594"/>
-    <cellStyle name="常规 2 5 4 4" xfId="595"/>
-    <cellStyle name="常规 2 5 4 5" xfId="596"/>
-    <cellStyle name="常规 2 5 5" xfId="597"/>
-    <cellStyle name="常规 2 5 5 2" xfId="598"/>
-    <cellStyle name="常规 2 5 5 2 2" xfId="599"/>
-    <cellStyle name="常规 2 5 5 2 3" xfId="600"/>
-    <cellStyle name="常规 2 5 5 3" xfId="601"/>
-    <cellStyle name="常规 2 5 5 4" xfId="602"/>
-    <cellStyle name="常规 2 5 6" xfId="603"/>
-    <cellStyle name="常规 2 5 6 2" xfId="604"/>
-    <cellStyle name="常规 2 5 6 3" xfId="605"/>
-    <cellStyle name="常规 2 5 7" xfId="606"/>
-    <cellStyle name="常规 2 5 8" xfId="607"/>
-    <cellStyle name="常规 2 6" xfId="608"/>
-    <cellStyle name="常规 2 6 2" xfId="609"/>
-    <cellStyle name="常规 2 6 2 2" xfId="610"/>
-    <cellStyle name="常规 3 2" xfId="611"/>
-    <cellStyle name="常规 2 6 2 3" xfId="612"/>
-    <cellStyle name="常规 2 6 2 4" xfId="613"/>
-    <cellStyle name="常规 2 6 3 2 2" xfId="614"/>
-    <cellStyle name="常规 2 6 2 5" xfId="615"/>
-    <cellStyle name="常规 2 6 3" xfId="616"/>
-    <cellStyle name="常规 2 6 3 2" xfId="617"/>
-    <cellStyle name="常规 2 6 3 2 2 2" xfId="618"/>
-    <cellStyle name="常规 2 6 3 2 3" xfId="619"/>
-    <cellStyle name="常规 2 6 3 2 4" xfId="620"/>
-    <cellStyle name="常规 4 2" xfId="621"/>
-    <cellStyle name="常规 2 6 3 3" xfId="622"/>
-    <cellStyle name="常规 2 6 3 5" xfId="623"/>
-    <cellStyle name="常规 2 6 3 3 2" xfId="624"/>
-    <cellStyle name="常规 2 6 3 4" xfId="625"/>
-    <cellStyle name="常规 2 6 4" xfId="626"/>
-    <cellStyle name="常规 2 6 4 2" xfId="627"/>
-    <cellStyle name="常规 2 6 4 2 2" xfId="628"/>
-    <cellStyle name="常规 2 6 4 2 3" xfId="629"/>
-    <cellStyle name="常规 2 6 4 3" xfId="630"/>
-    <cellStyle name="常规 2 6 4 4" xfId="631"/>
-    <cellStyle name="常规 2 6 5" xfId="632"/>
-    <cellStyle name="常规 2 6 5 2" xfId="633"/>
-    <cellStyle name="常规 6 2" xfId="634"/>
-    <cellStyle name="常规 2 6 5 3" xfId="635"/>
-    <cellStyle name="常规 2 6 6" xfId="636"/>
-    <cellStyle name="常规 2 6 7" xfId="637"/>
-    <cellStyle name="常规 2 7" xfId="638"/>
-    <cellStyle name="常规 2 7 2" xfId="639"/>
-    <cellStyle name="常规 2 7 2 2" xfId="640"/>
-    <cellStyle name="常规 2 7 2 2 2" xfId="641"/>
-    <cellStyle name="常规 2 7 2 2 3" xfId="642"/>
-    <cellStyle name="常规 2 7 2 3" xfId="643"/>
-    <cellStyle name="常规 2 7 2 4" xfId="644"/>
-    <cellStyle name="常规 2 7 3" xfId="645"/>
-    <cellStyle name="常规 2 7 3 2" xfId="646"/>
-    <cellStyle name="常规 2 7 3 3" xfId="647"/>
-    <cellStyle name="常规 2 7 4" xfId="648"/>
-    <cellStyle name="常规 2 7 5" xfId="649"/>
-    <cellStyle name="常规 2 8" xfId="650"/>
-    <cellStyle name="常规 2 8 2" xfId="651"/>
-    <cellStyle name="常规 2 8 2 2" xfId="652"/>
-    <cellStyle name="常规 2 8 2 2 2" xfId="653"/>
-    <cellStyle name="常规 2 8 2 2 3" xfId="654"/>
-    <cellStyle name="常规 2 8 2 3" xfId="655"/>
-    <cellStyle name="常规 2 8 2 4" xfId="656"/>
-    <cellStyle name="常规 2 8 3" xfId="657"/>
-    <cellStyle name="常规 2 8 3 2" xfId="658"/>
-    <cellStyle name="常规 2 8 3 3" xfId="659"/>
-    <cellStyle name="常规 2 8 4" xfId="660"/>
-    <cellStyle name="常规 2 8 5" xfId="661"/>
-    <cellStyle name="常规 2 9" xfId="662"/>
-    <cellStyle name="常规 2 9 2" xfId="663"/>
-    <cellStyle name="常规 2 9 2 2" xfId="664"/>
-    <cellStyle name="常规 2 9 2 2 2" xfId="665"/>
-    <cellStyle name="常规 2 9 2 2 3" xfId="666"/>
-    <cellStyle name="常规 2 9 2 3" xfId="667"/>
-    <cellStyle name="常规 2 9 2 4" xfId="668"/>
-    <cellStyle name="常规 2 9 3" xfId="669"/>
-    <cellStyle name="常规 2 9 3 2" xfId="670"/>
-    <cellStyle name="常规 2 9 3 3" xfId="671"/>
-    <cellStyle name="常规 2 9 4" xfId="672"/>
-    <cellStyle name="常规 2 9 5" xfId="673"/>
-    <cellStyle name="常规 3" xfId="674"/>
-    <cellStyle name="常规 4" xfId="675"/>
-    <cellStyle name="常规 5" xfId="676"/>
-    <cellStyle name="常规 6" xfId="677"/>
+    <cellStyle name="常规 2 9 3 3" xfId="1"/>
+    <cellStyle name="常规 2 9 3 2" xfId="2"/>
+    <cellStyle name="常规 2 9 2 4" xfId="3"/>
+    <cellStyle name="常规 2 9 2 2 2" xfId="4"/>
+    <cellStyle name="常规 2 7 5" xfId="5"/>
+    <cellStyle name="常规 2 7 4" xfId="6"/>
+    <cellStyle name="常规 2 7 3 3" xfId="7"/>
+    <cellStyle name="常规 2 7 3 2" xfId="8"/>
+    <cellStyle name="常规 2 7 3" xfId="9"/>
+    <cellStyle name="常规 2 7 2 4" xfId="10"/>
+    <cellStyle name="常规 2 7 2 3" xfId="11"/>
+    <cellStyle name="常规 2 7 2 2" xfId="12"/>
+    <cellStyle name="常规 2 7" xfId="13"/>
+    <cellStyle name="常规 2 6 6" xfId="14"/>
+    <cellStyle name="常规 2 6 5 3" xfId="15"/>
+    <cellStyle name="常规 6 2" xfId="16"/>
+    <cellStyle name="常规 2 6 5 2" xfId="17"/>
+    <cellStyle name="常规 2 6 5" xfId="18"/>
+    <cellStyle name="常规 2 6 4 4" xfId="19"/>
+    <cellStyle name="常规 2 6 4 3" xfId="20"/>
+    <cellStyle name="常规 2 6 4 2 3" xfId="21"/>
+    <cellStyle name="常规 2 6 4 2 2" xfId="22"/>
+    <cellStyle name="常规 2 6 4" xfId="23"/>
+    <cellStyle name="常规 2 6 3 4" xfId="24"/>
+    <cellStyle name="常规 2 9 2 2 3" xfId="25"/>
+    <cellStyle name="常规 2 6 3 3 2" xfId="26"/>
+    <cellStyle name="常规 2 6 3 5" xfId="27"/>
+    <cellStyle name="常规 2 6 3 3" xfId="28"/>
+    <cellStyle name="常规 4 2" xfId="29"/>
+    <cellStyle name="常规 2 6 3" xfId="30"/>
+    <cellStyle name="常规 2 6 2 5" xfId="31"/>
+    <cellStyle name="常规 2 6 3 2 2" xfId="32"/>
+    <cellStyle name="常规 2 6 2" xfId="33"/>
+    <cellStyle name="常规 2 6" xfId="34"/>
+    <cellStyle name="常规 2 5 6 3" xfId="35"/>
+    <cellStyle name="常规 2 5 6 2" xfId="36"/>
+    <cellStyle name="常规 2 5 6" xfId="37"/>
+    <cellStyle name="常规 2 5 5 4" xfId="38"/>
+    <cellStyle name="常规 2 5 5 3" xfId="39"/>
+    <cellStyle name="常规 2 5 5 2 3" xfId="40"/>
+    <cellStyle name="常规 2 5 5 2 2" xfId="41"/>
+    <cellStyle name="常规 2 5 5 2" xfId="42"/>
+    <cellStyle name="常规 2 5 5" xfId="43"/>
+    <cellStyle name="常规 2 5 4 5" xfId="44"/>
+    <cellStyle name="常规 2 5 4 4" xfId="45"/>
+    <cellStyle name="常规 2 5 4 2 2" xfId="46"/>
+    <cellStyle name="常规 2 5 4 2" xfId="47"/>
+    <cellStyle name="常规 2 6 2 3 2" xfId="48"/>
+    <cellStyle name="常规 2 5 3 2 2 2" xfId="49"/>
+    <cellStyle name="常规 2 5 3 2 2" xfId="50"/>
+    <cellStyle name="常规 2 5 2 7" xfId="51"/>
+    <cellStyle name="常规 2 5 2 2 2 3" xfId="52"/>
+    <cellStyle name="常规 2 5 2 2 2 2" xfId="53"/>
+    <cellStyle name="常规 2 5 2 2 2" xfId="54"/>
+    <cellStyle name="常规 2 5 2 2" xfId="55"/>
+    <cellStyle name="常规 2 5 2" xfId="56"/>
+    <cellStyle name="常规 2 5" xfId="57"/>
+    <cellStyle name="常规 2 4 6 4" xfId="58"/>
+    <cellStyle name="常规 2 4 6 3" xfId="59"/>
+    <cellStyle name="常规 2 4 6 2 3" xfId="60"/>
+    <cellStyle name="常规 2 4 6 2 2" xfId="61"/>
+    <cellStyle name="常规 2 4 6 2" xfId="62"/>
+    <cellStyle name="常规 2 4 5 3" xfId="63"/>
+    <cellStyle name="常规 2 4 5 2 3" xfId="64"/>
+    <cellStyle name="常规 2 4 5 2 2" xfId="65"/>
+    <cellStyle name="常规 2 4 5 2" xfId="66"/>
+    <cellStyle name="常规 2 4 4 3 3" xfId="67"/>
+    <cellStyle name="常规 2 4 3 4" xfId="68"/>
+    <cellStyle name="常规 2 4 3 3" xfId="69"/>
+    <cellStyle name="常规 2 4 3 2 3 2" xfId="70"/>
+    <cellStyle name="常规 2 4 3 2 3" xfId="71"/>
+    <cellStyle name="常规 2 4 3 2 2 3" xfId="72"/>
+    <cellStyle name="常规 2 4 3 2 2 2 3" xfId="73"/>
+    <cellStyle name="常规 2 4 3 2 3 3" xfId="74"/>
+    <cellStyle name="常规 2 4 3 2 2 2 2" xfId="75"/>
+    <cellStyle name="常规 2 4 3 2 2 2" xfId="76"/>
+    <cellStyle name="常规 2 4 3 2 2" xfId="77"/>
+    <cellStyle name="常规 2 4 3" xfId="78"/>
+    <cellStyle name="常规 2 5 3" xfId="79"/>
+    <cellStyle name="常规 2 4 2 5 2 2" xfId="80"/>
+    <cellStyle name="常规 2 4 2 4 2 3" xfId="81"/>
+    <cellStyle name="常规 2 4 2 4 2" xfId="82"/>
+    <cellStyle name="常规 2 9 3" xfId="83"/>
+    <cellStyle name="常规 2 4 2 3 3" xfId="84"/>
+    <cellStyle name="常规 2 9 2" xfId="85"/>
+    <cellStyle name="常规 2 4 2 3 2" xfId="86"/>
+    <cellStyle name="常规 2 4 2 2 5 3" xfId="87"/>
+    <cellStyle name="常规 2 4 2 2 5 2" xfId="88"/>
+    <cellStyle name="常规 2 6 2 4" xfId="89"/>
+    <cellStyle name="常规 2 4 2 2 4 2 3" xfId="90"/>
+    <cellStyle name="常规 2 4 3 2" xfId="91"/>
+    <cellStyle name="常规 2 6 2 3" xfId="92"/>
+    <cellStyle name="常规 2 4 2 2 4 2 2" xfId="93"/>
+    <cellStyle name="常规 2 8 3 3" xfId="94"/>
+    <cellStyle name="常规 2 4 2 2 3 3" xfId="95"/>
+    <cellStyle name="常规 2 5 2 3" xfId="96"/>
+    <cellStyle name="常规 2 4 2 2 3 2 2" xfId="97"/>
+    <cellStyle name="常规 2 8 3" xfId="98"/>
+    <cellStyle name="常规 2 4 2 2 3" xfId="99"/>
+    <cellStyle name="常规 2 8 2" xfId="100"/>
+    <cellStyle name="常规 2 4 2 2 2" xfId="101"/>
+    <cellStyle name="常规 2 8" xfId="102"/>
+    <cellStyle name="常规 2 4 2 2" xfId="103"/>
+    <cellStyle name="常规 2 8 3 2" xfId="104"/>
+    <cellStyle name="常规 2 4 2 2 3 2" xfId="105"/>
+    <cellStyle name="常规 2 3 6 4" xfId="106"/>
+    <cellStyle name="常规 2 8 2 3" xfId="107"/>
+    <cellStyle name="常规 2 4 2 2 2 3" xfId="108"/>
+    <cellStyle name="常规 2 3 6 3" xfId="109"/>
+    <cellStyle name="常规 2 8 2 2" xfId="110"/>
+    <cellStyle name="常规 2 4 2 2 2 2" xfId="111"/>
+    <cellStyle name="常规 2 3 6 2" xfId="112"/>
+    <cellStyle name="常规 2 3 5 4" xfId="113"/>
+    <cellStyle name="常规 2 4 3 4 2 3" xfId="114"/>
+    <cellStyle name="常规 2 3 5 3" xfId="115"/>
+    <cellStyle name="常规 2 3 5 2 3" xfId="116"/>
+    <cellStyle name="常规 2 4 3 4 2" xfId="117"/>
+    <cellStyle name="常规 2 3 5" xfId="118"/>
+    <cellStyle name="常规 2 3 4 2 3" xfId="119"/>
+    <cellStyle name="常规 2 3 4 2 2 2" xfId="120"/>
+    <cellStyle name="常规 2 3 4 2 2" xfId="121"/>
+    <cellStyle name="常规 2 3 4 2" xfId="122"/>
+    <cellStyle name="常规 2 3 4" xfId="123"/>
+    <cellStyle name="常规 2 5 2 4 2" xfId="124"/>
+    <cellStyle name="常规 2 3 3 4" xfId="125"/>
+    <cellStyle name="常规 2 6 2 2 3" xfId="126"/>
+    <cellStyle name="常规 2 3 3 3 2" xfId="127"/>
+    <cellStyle name="常规 2 3 3 3" xfId="128"/>
+    <cellStyle name="常规 2 3 3 2 4" xfId="129"/>
+    <cellStyle name="常规 2 3 3 2 3" xfId="130"/>
+    <cellStyle name="常规 2 3 3 2 2 3" xfId="131"/>
+    <cellStyle name="常规 2 3 6 2 2" xfId="132"/>
+    <cellStyle name="常规 2 3 3 2 2" xfId="133"/>
+    <cellStyle name="常规 2 3 3 2" xfId="134"/>
+    <cellStyle name="常规 2 5 4 3 2" xfId="135"/>
+    <cellStyle name="常规 2 5 2 4" xfId="136"/>
+    <cellStyle name="常规 2 4 2 2 3 2 3" xfId="137"/>
+    <cellStyle name="常规 2 3 2 5 2 3" xfId="138"/>
+    <cellStyle name="常规 2 5 2 3 2 2" xfId="139"/>
+    <cellStyle name="常规 2 3 2 4 2" xfId="140"/>
+    <cellStyle name="常规 2 5 2 3 2" xfId="141"/>
+    <cellStyle name="常规 2 3 2 4" xfId="142"/>
+    <cellStyle name="常规 2 3 2 3 4" xfId="143"/>
+    <cellStyle name="常规 2 3 2 3 3" xfId="144"/>
+    <cellStyle name="常规 2 3 2 3 2" xfId="145"/>
+    <cellStyle name="常规 2 3 2 2 4 4" xfId="146"/>
+    <cellStyle name="常规 2 6 3 2 2 2" xfId="147"/>
+    <cellStyle name="常规 2 3 2 2 4" xfId="148"/>
+    <cellStyle name="常规 2 3 2 2 3 3" xfId="149"/>
+    <cellStyle name="常规 2 3 2 2 3 2 3" xfId="150"/>
+    <cellStyle name="常规 2 4 2 5 4" xfId="151"/>
+    <cellStyle name="常规 2 3 2 2 3 2 2" xfId="152"/>
+    <cellStyle name="常规 2 3 2 2 3 2" xfId="153"/>
+    <cellStyle name="常规 2 3 2 2 3" xfId="154"/>
+    <cellStyle name="常规 2 3 2 2 2 2 3" xfId="155"/>
+    <cellStyle name="常规 2 3 2 2 2 2 2" xfId="156"/>
+    <cellStyle name="常规 2 3 4 2 4" xfId="157"/>
+    <cellStyle name="常规 2 3 2 2 2 2" xfId="158"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="159"/>
+    <cellStyle name="常规 2 3 2 2" xfId="160"/>
+    <cellStyle name="常规 2 2 8 2 3" xfId="161"/>
+    <cellStyle name="常规 2 2 8 2 2" xfId="162"/>
+    <cellStyle name="常规 2 3 2 3 2 3" xfId="163"/>
+    <cellStyle name="常规 2 4 2 2 7" xfId="164"/>
+    <cellStyle name="常规 2 2 7 2" xfId="165"/>
+    <cellStyle name="常规 2 4 3 3 4" xfId="166"/>
+    <cellStyle name="常规 2 2 7" xfId="167"/>
+    <cellStyle name="常规 2 2 6 4" xfId="168"/>
+    <cellStyle name="常规 2 2 6 3" xfId="169"/>
+    <cellStyle name="常规 2 3 2 2 2 4" xfId="170"/>
+    <cellStyle name="常规 2 2 6 2" xfId="171"/>
+    <cellStyle name="常规 2 5 4 2 4" xfId="172"/>
+    <cellStyle name="常规 2 2 5 3 3" xfId="173"/>
+    <cellStyle name="强调文字颜色 6" xfId="174" builtinId="49"/>
+    <cellStyle name="常规 2 3 2 6 2" xfId="175"/>
+    <cellStyle name="常规 2 2 2 6 2" xfId="176"/>
+    <cellStyle name="常规 2 2 4 5" xfId="177"/>
+    <cellStyle name="常规 2 2 5 3 2 3" xfId="178"/>
+    <cellStyle name="常规 2 2 4 4" xfId="179"/>
+    <cellStyle name="常规 2 2 5 3 2 2" xfId="180"/>
+    <cellStyle name="常规 2 2 2 2 2 4 2" xfId="181"/>
+    <cellStyle name="常规 2 3 2 6 3" xfId="182"/>
+    <cellStyle name="常规 2 5 4 2 3" xfId="183"/>
+    <cellStyle name="常规 2 2 5 3 2" xfId="184"/>
+    <cellStyle name="常规 2 2 3 4 2 3" xfId="185"/>
+    <cellStyle name="常规 2 2 2 2 2 3 2" xfId="186"/>
+    <cellStyle name="常规 2 3 2 5 3" xfId="187"/>
+    <cellStyle name="常规 2 2 3 4 2 2" xfId="188"/>
+    <cellStyle name="常规 2 3 2 5 2" xfId="189"/>
+    <cellStyle name="常规 2 2 2 3 3 2" xfId="190"/>
+    <cellStyle name="常规 2 12 2" xfId="191"/>
+    <cellStyle name="常规 2 2 5 2 2 3" xfId="192"/>
+    <cellStyle name="常规 2 6 7" xfId="193"/>
+    <cellStyle name="常规 2 4 3 3 2 2" xfId="194"/>
+    <cellStyle name="常规 2 2 5 2" xfId="195"/>
+    <cellStyle name="常规 2 7 2 2 3" xfId="196"/>
+    <cellStyle name="常规 2 4 3 3 2" xfId="197"/>
+    <cellStyle name="常规 2 2 5" xfId="198"/>
+    <cellStyle name="常规 2 4 3 7" xfId="199"/>
+    <cellStyle name="常规 2 2 4 5 4" xfId="200"/>
+    <cellStyle name="常规 2 4 3 6" xfId="201"/>
+    <cellStyle name="常规 2 2 2 6 2 3" xfId="202"/>
+    <cellStyle name="常规 2 2 4 5 3" xfId="203"/>
+    <cellStyle name="常规 2 4 6" xfId="204"/>
+    <cellStyle name="常规 2 4 3 5 3" xfId="205"/>
+    <cellStyle name="常规 2 2 4 5 2 3" xfId="206"/>
+    <cellStyle name="常规 2 2 2 6 2 2" xfId="207"/>
+    <cellStyle name="常规 2 4 3 5" xfId="208"/>
+    <cellStyle name="常规 2 2 4 5 2" xfId="209"/>
+    <cellStyle name="常规 2 4 2 7" xfId="210"/>
+    <cellStyle name="常规 2 2 4 4 4" xfId="211"/>
+    <cellStyle name="常规 2 4 2 6" xfId="212"/>
+    <cellStyle name="常规 2 2 4 4 3" xfId="213"/>
+    <cellStyle name="常规 2 4 2 5" xfId="214"/>
+    <cellStyle name="常规 2 5 3 3 3" xfId="215"/>
+    <cellStyle name="常规 2 2 4 4 2" xfId="216"/>
+    <cellStyle name="常规 2 2 4 3 4" xfId="217"/>
+    <cellStyle name="常规 2 2 5 2 2 2" xfId="218"/>
+    <cellStyle name="常规 2 5 3 2 4" xfId="219"/>
+    <cellStyle name="常规 2 2 4 3 3" xfId="220"/>
+    <cellStyle name="常规 2 5 3 2 3" xfId="221"/>
+    <cellStyle name="常规 2 2 4 3 2" xfId="222"/>
+    <cellStyle name="常规 2 2 3 2 3 2 2" xfId="223"/>
+    <cellStyle name="常规 2 2 4 2 5" xfId="224"/>
+    <cellStyle name="常规 2 2 4 2 2 4" xfId="225"/>
+    <cellStyle name="常规 2 3 2 2 4 3" xfId="226"/>
+    <cellStyle name="常规 2 2 4 2 2 3" xfId="227"/>
+    <cellStyle name="常规 2 3 4 3" xfId="228"/>
+    <cellStyle name="常规 2 2 4 2 2 2 2" xfId="229"/>
+    <cellStyle name="常规 2 3 6" xfId="230"/>
+    <cellStyle name="常规 2 2 2 3 3 2 2" xfId="231"/>
+    <cellStyle name="常规 2 4 3 4 3" xfId="232"/>
+    <cellStyle name="常规 2 2 4 2 2 2" xfId="233"/>
+    <cellStyle name="常规 2 2 4 2 2" xfId="234"/>
+    <cellStyle name="常规 2 3 3 7" xfId="235"/>
+    <cellStyle name="常规 2 2 3 5 4" xfId="236"/>
+    <cellStyle name="常规 2 5 2 4 4" xfId="237"/>
+    <cellStyle name="常规 2 2 2 5 2 3" xfId="238"/>
+    <cellStyle name="常规 2 3 3 6" xfId="239"/>
+    <cellStyle name="常规 2 2 3 5 3" xfId="240"/>
+    <cellStyle name="常规 2 3 3 5 2" xfId="241"/>
+    <cellStyle name="常规 2 2 3 5 2 2" xfId="242"/>
+    <cellStyle name="常规 2 5 4 2 2 3" xfId="243"/>
+    <cellStyle name="常规 2 2 2 4 2 2" xfId="244"/>
+    <cellStyle name="常规 2 2 2 5 2" xfId="245"/>
+    <cellStyle name="常规 2 2 3 5" xfId="246"/>
+    <cellStyle name="常规 2 8 5" xfId="247"/>
+    <cellStyle name="常规 2 4 2 2 5" xfId="248"/>
+    <cellStyle name="常规 2 3 2 4 2 2" xfId="249"/>
+    <cellStyle name="常规 2 3 2 6" xfId="250"/>
+    <cellStyle name="常规 2 5 2 3 4" xfId="251"/>
+    <cellStyle name="常规 2 2 3 4 3" xfId="252"/>
+    <cellStyle name="常规 2 3 2 5" xfId="253"/>
+    <cellStyle name="常规 2 5 2 3 3" xfId="254"/>
+    <cellStyle name="常规 2 2 3 4 2" xfId="255"/>
+    <cellStyle name="常规 2 5 4 2 2 2" xfId="256"/>
+    <cellStyle name="常规 2 4 9" xfId="257"/>
+    <cellStyle name="常规 2 2 3 4" xfId="258"/>
+    <cellStyle name="常规 2 3 3 4 2 3" xfId="259"/>
+    <cellStyle name="常规 2 2 3 2 2 3 2" xfId="260"/>
+    <cellStyle name="常规 2 2 3 3 5" xfId="261"/>
+    <cellStyle name="常规 2 2 3 3 4 3" xfId="262"/>
+    <cellStyle name="常规 2 4 3 3 2 3" xfId="263"/>
+    <cellStyle name="常规 2 2 5 3" xfId="264"/>
+    <cellStyle name="常规 2 3 5 2" xfId="265"/>
+    <cellStyle name="常规 2 4 3 4 2 2" xfId="266"/>
+    <cellStyle name="常规 2 2 3 3 4 2" xfId="267"/>
+    <cellStyle name="常规 2 5 2 2 5" xfId="268"/>
+    <cellStyle name="常规 2 3 3 4 2 2" xfId="269"/>
+    <cellStyle name="常规 2 2 3 3 4" xfId="270"/>
+    <cellStyle name="常规 2 2 3 3 3 3" xfId="271"/>
+    <cellStyle name="常规 2 7 2" xfId="272"/>
+    <cellStyle name="常规 2 2 3 3 3 2 3" xfId="273"/>
+    <cellStyle name="常规 2 2 3 3 3 2 2" xfId="274"/>
+    <cellStyle name="常规 2 2 3 3 3 2" xfId="275"/>
+    <cellStyle name="常规 2 5 2 2 4" xfId="276"/>
+    <cellStyle name="常规 2 2 3 3 3" xfId="277"/>
+    <cellStyle name="常规 2 2 3 3 2 4" xfId="278"/>
+    <cellStyle name="常规 2 5 2 2 3 3" xfId="279"/>
+    <cellStyle name="常规 2 2 3 3 2 3" xfId="280"/>
+    <cellStyle name="常规 2 2 3 3 2 2 3" xfId="281"/>
+    <cellStyle name="常规 2 5 2 2 3 2" xfId="282"/>
+    <cellStyle name="常规 2 2 3 3 2 2" xfId="283"/>
+    <cellStyle name="常规 2 5 2 2 3" xfId="284"/>
+    <cellStyle name="常规 2 2 3 3 2" xfId="285"/>
+    <cellStyle name="常规 2 5 2 4 2 2" xfId="286"/>
+    <cellStyle name="常规 2 3 3 4 2" xfId="287"/>
+    <cellStyle name="常规 2 6 2 3 3" xfId="288"/>
+    <cellStyle name="常规 2 4 8" xfId="289"/>
+    <cellStyle name="常规 2 2 3 3" xfId="290"/>
+    <cellStyle name="常规 2 2 3 2 2 2 4" xfId="291"/>
+    <cellStyle name="常规 2 2 3 2 7" xfId="292"/>
+    <cellStyle name="常规 2 2 3 2 6 3" xfId="293"/>
+    <cellStyle name="常规 2 2 3 2 2 2 3" xfId="294"/>
+    <cellStyle name="常规 2 2 3 2 6" xfId="295"/>
+    <cellStyle name="常规 2 2 3 2 2 2 2 3" xfId="296"/>
+    <cellStyle name="常规 2 2 3 2 5 3" xfId="297"/>
+    <cellStyle name="常规 2 2 3 2 2 2 2" xfId="298"/>
+    <cellStyle name="常规 2 2 3 2 5" xfId="299"/>
+    <cellStyle name="常规 2 2 3 2 4 2 3" xfId="300"/>
+    <cellStyle name="常规 2 2 3 2 4 2" xfId="301"/>
+    <cellStyle name="常规 2 2 3 2 4" xfId="302"/>
+    <cellStyle name="常规 2 4 5" xfId="303"/>
+    <cellStyle name="常规 2 4 3 5 2" xfId="304"/>
+    <cellStyle name="常规 2 2 4 5 2 2" xfId="305"/>
+    <cellStyle name="常规 2 2 4 6 3" xfId="306"/>
+    <cellStyle name="常规 2 2 4 2 6" xfId="307"/>
+    <cellStyle name="常规 2 2 3 2 3 2 3" xfId="308"/>
+    <cellStyle name="常规 2 2 2 6 3" xfId="309"/>
+    <cellStyle name="常规 2 2 4 6" xfId="310"/>
+    <cellStyle name="常规 2 4 7 3" xfId="311"/>
+    <cellStyle name="常规 2 2 3 2 3" xfId="312"/>
+    <cellStyle name="常规 2 2 3 8" xfId="313"/>
+    <cellStyle name="常规 2 2 3 2 2 3 4" xfId="314"/>
+    <cellStyle name="常规 2 2 3 3 6" xfId="315"/>
+    <cellStyle name="常规 2 2 3 2 2 3 3" xfId="316"/>
+    <cellStyle name="常规 2 2 2 5 4" xfId="317"/>
+    <cellStyle name="常规 2 2 3 7" xfId="318"/>
+    <cellStyle name="常规 2 2 3 2 2 3" xfId="319"/>
+    <cellStyle name="常规 2 4 2 5 3" xfId="320"/>
+    <cellStyle name="常规 2 2 4 4 2 3" xfId="321"/>
+    <cellStyle name="常规 2 2 3 6 3" xfId="322"/>
+    <cellStyle name="汇总" xfId="323" builtinId="25"/>
+    <cellStyle name="常规 2 4 2 6 3" xfId="324"/>
+    <cellStyle name="常规 2 2 3 2 2 4 3" xfId="325"/>
+    <cellStyle name="常规 2 4 2 5 2" xfId="326"/>
+    <cellStyle name="常规 2 2 4 4 2 2" xfId="327"/>
+    <cellStyle name="常规 2 2 3 6 2 2" xfId="328"/>
+    <cellStyle name="常规 2 2 3 2 5 2" xfId="329"/>
+    <cellStyle name="常规 2 2 3 2 2 2 2 2" xfId="330"/>
+    <cellStyle name="常规 2 2 2 4 2 3" xfId="331"/>
+    <cellStyle name="常规 2 2 2 5 3" xfId="332"/>
+    <cellStyle name="常规 2 2 3 6" xfId="333"/>
+    <cellStyle name="常规 2 2 3 2 8" xfId="334"/>
+    <cellStyle name="常规 2 2 3 2 2 2" xfId="335"/>
+    <cellStyle name="常规 2 4 7 2" xfId="336"/>
+    <cellStyle name="常规 2 2 3 2 2" xfId="337"/>
+    <cellStyle name="常规 2 4 7" xfId="338"/>
+    <cellStyle name="常规 2 2 3 2" xfId="339"/>
+    <cellStyle name="常规 2 4 3 3 3" xfId="340"/>
+    <cellStyle name="常规 2 2 6" xfId="341"/>
+    <cellStyle name="常规 2 3 3 5 3" xfId="342"/>
+    <cellStyle name="常规 2 2 3 5 2 3" xfId="343"/>
+    <cellStyle name="常规 2 2 5 5" xfId="344"/>
+    <cellStyle name="常规 2 2 2 7 2" xfId="345"/>
+    <cellStyle name="常规 2 8 2 4" xfId="346"/>
+    <cellStyle name="常规 2 2 4 2 3 2" xfId="347"/>
+    <cellStyle name="常规 2 4 2 2 2 4" xfId="348"/>
+    <cellStyle name="常规 2 3 3 5" xfId="349"/>
+    <cellStyle name="常规 2 5 2 4 3" xfId="350"/>
+    <cellStyle name="常规 2 2 3 5 2" xfId="351"/>
+    <cellStyle name="常规 2 2 2 5 2 2" xfId="352"/>
+    <cellStyle name="常规 2 8 2 2 3" xfId="353"/>
+    <cellStyle name="常规 2 5 3 3 2" xfId="354"/>
+    <cellStyle name="常规 2 4 2 4" xfId="355"/>
+    <cellStyle name="常规 2 4 2 2 2 2 3" xfId="356"/>
+    <cellStyle name="常规 2 2 2 7" xfId="357"/>
+    <cellStyle name="常规 2 2 2 4 4" xfId="358"/>
+    <cellStyle name="常规 2 2 2 5" xfId="359"/>
+    <cellStyle name="常规 2 2 2 4 2" xfId="360"/>
+    <cellStyle name="常规 2 4 2 2 3 4" xfId="361"/>
+    <cellStyle name="常规 2 2 4 2 4 2" xfId="362"/>
+    <cellStyle name="常规 2 2 2 3 6" xfId="363"/>
+    <cellStyle name="常规 2 6 3 3 3" xfId="364"/>
+    <cellStyle name="常规 2 3 3 3 2 3" xfId="365"/>
+    <cellStyle name="常规 2 14" xfId="366"/>
+    <cellStyle name="常规 2 2 2 3 5" xfId="367"/>
+    <cellStyle name="常规 2 2 2 3 4 3" xfId="368"/>
+    <cellStyle name="常规 2 4 2 4 2 2" xfId="369"/>
+    <cellStyle name="常规 2 2 2 3 4 2" xfId="370"/>
+    <cellStyle name="常规 2 3 3 3 2 2" xfId="371"/>
+    <cellStyle name="常规 2 13" xfId="372"/>
+    <cellStyle name="常规 2 2 2 3 4" xfId="373"/>
+    <cellStyle name="常规 2 3 7" xfId="374"/>
+    <cellStyle name="常规 2 2 2 2" xfId="375"/>
+    <cellStyle name="常规 2 4 3 4 4" xfId="376"/>
+    <cellStyle name="常规 2 2 2 3 3 2 3" xfId="377"/>
+    <cellStyle name="常规 2 12" xfId="378"/>
+    <cellStyle name="常规 2 2 2 3 3" xfId="379"/>
+    <cellStyle name="好" xfId="380" builtinId="26"/>
+    <cellStyle name="常规 2 4 2 4 4" xfId="381"/>
+    <cellStyle name="常规 2 2 2 3 2 2 3" xfId="382"/>
+    <cellStyle name="常规 2 11 2" xfId="383"/>
+    <cellStyle name="常规 2 2 2 3 2 2" xfId="384"/>
+    <cellStyle name="常规 2 3 8" xfId="385"/>
+    <cellStyle name="常规 2 2 2 3" xfId="386"/>
+    <cellStyle name="常规 2 2 4 8" xfId="387"/>
+    <cellStyle name="常规 2 6 3 2 4" xfId="388"/>
+    <cellStyle name="常规 2 3 4 3 3" xfId="389"/>
+    <cellStyle name="常规 2 4 4 3" xfId="390"/>
+    <cellStyle name="常规 2 2 4 2 3 2 2" xfId="391"/>
+    <cellStyle name="常规 3 2" xfId="392"/>
+    <cellStyle name="常规 2 2 2 2 6 2" xfId="393"/>
+    <cellStyle name="常规 2 4" xfId="394"/>
+    <cellStyle name="常规 2 2 2 2 5 4" xfId="395"/>
+    <cellStyle name="常规 2 3" xfId="396"/>
+    <cellStyle name="常规 2 2 2 2 5 3" xfId="397"/>
+    <cellStyle name="常规 2 3 2 3 2 2" xfId="398"/>
+    <cellStyle name="常规 2 2 2" xfId="399"/>
+    <cellStyle name="常规 2 2 2 2 5 2 2" xfId="400"/>
+    <cellStyle name="常规 2 4 4 4" xfId="401"/>
+    <cellStyle name="常规 2 2 4 2 3 2 3" xfId="402"/>
+    <cellStyle name="常规 2 2 2 2 6 3" xfId="403"/>
+    <cellStyle name="常规 2 2 2 6 4" xfId="404"/>
+    <cellStyle name="常规 2 2 4 7" xfId="405"/>
+    <cellStyle name="常规 2 6 3 2 3" xfId="406"/>
+    <cellStyle name="常规 2 3 4 3 2" xfId="407"/>
+    <cellStyle name="常规 2 2" xfId="408"/>
+    <cellStyle name="常规 2 2 2 2 5 2" xfId="409"/>
+    <cellStyle name="常规 2 6 3 2" xfId="410"/>
+    <cellStyle name="常规 2 2 3 2 5 4" xfId="411"/>
+    <cellStyle name="常规 2 9 4" xfId="412"/>
+    <cellStyle name="常规 2 4 2 3 4" xfId="413"/>
+    <cellStyle name="常规 2 6 2 2 2 3" xfId="414"/>
+    <cellStyle name="常规 2" xfId="415"/>
+    <cellStyle name="常规 2 2 2 2 5" xfId="416"/>
+    <cellStyle name="常规 2 3 2 2 5 2" xfId="417"/>
+    <cellStyle name="常规 2 2 2 2 4 4" xfId="418"/>
+    <cellStyle name="常规 2 2 5 2 3" xfId="419"/>
+    <cellStyle name="常规 2 2 7 3" xfId="420"/>
+    <cellStyle name="常规 2 3 2 2 4 2 2" xfId="421"/>
+    <cellStyle name="常规 2 3 2 4 2 3" xfId="422"/>
+    <cellStyle name="常规 2 4 2 2 6" xfId="423"/>
+    <cellStyle name="常规 2 2 5 2 2" xfId="424"/>
+    <cellStyle name="常规 2 2 3 2 5 2 2" xfId="425"/>
+    <cellStyle name="常规 2 9 2 2" xfId="426"/>
+    <cellStyle name="常规 2 4 2 3 2 2" xfId="427"/>
+    <cellStyle name="常规 2 4 2 2 4 3" xfId="428"/>
+    <cellStyle name="常规 2 2 2 2 4 2 2" xfId="429"/>
+    <cellStyle name="常规 2 3 2 2 2 3" xfId="430"/>
+    <cellStyle name="常规 2 2 2 2 4 2 3" xfId="431"/>
+    <cellStyle name="千位分隔[0]" xfId="432" builtinId="6"/>
+    <cellStyle name="常规 2 2 3 7 3" xfId="433"/>
+    <cellStyle name="常规 2 3 4 2 2 3" xfId="434"/>
+    <cellStyle name="常规 2 3 2 2 3 4" xfId="435"/>
+    <cellStyle name="常规 2 2 2 2 2 6" xfId="436"/>
+    <cellStyle name="常规 2 4 2 2 4 2" xfId="437"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="438" builtinId="52"/>
+    <cellStyle name="常规 2 2 2 2 4 2" xfId="439"/>
+    <cellStyle name="常规 2 6 2 2" xfId="440"/>
+    <cellStyle name="常规 2 2 3 2 4 4" xfId="441"/>
+    <cellStyle name="常规 2 8 4" xfId="442"/>
+    <cellStyle name="常规 2 4 2 2 4" xfId="443"/>
+    <cellStyle name="常规 2 2 7 2 2" xfId="444"/>
+    <cellStyle name="适中" xfId="445" builtinId="28"/>
+    <cellStyle name="常规 2 6 2 2 2" xfId="446"/>
+    <cellStyle name="货币" xfId="447" builtinId="4"/>
+    <cellStyle name="常规 2 3 3 2 2 2" xfId="448"/>
+    <cellStyle name="常规 2 2 8 4" xfId="449"/>
+    <cellStyle name="常规 2 4 3 2 4" xfId="450"/>
+    <cellStyle name="常规 2 2 2 2 3 2" xfId="451"/>
+    <cellStyle name="常规 2 3 3" xfId="452"/>
+    <cellStyle name="常规 2 2 5 3 4" xfId="453"/>
+    <cellStyle name="常规 2 3 2" xfId="454"/>
+    <cellStyle name="常规 2 2 4 2 3" xfId="455"/>
+    <cellStyle name="超链接" xfId="456" builtinId="8"/>
+    <cellStyle name="常规 2 2 2 2 2 4" xfId="457"/>
+    <cellStyle name="常规 2 2 6 2 3" xfId="458"/>
+    <cellStyle name="常规 2 3 2 2 4 2" xfId="459"/>
+    <cellStyle name="常规 2 2 2 2 3 4" xfId="460"/>
+    <cellStyle name="常规 2 3 3 3 4" xfId="461"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="462" builtinId="35"/>
+    <cellStyle name="常规 2 2 9" xfId="463"/>
+    <cellStyle name="常规 2 10" xfId="464"/>
+    <cellStyle name="常规 2 2 2 2 2 3 2 3" xfId="465"/>
+    <cellStyle name="常规 2 2 6 2 2" xfId="466"/>
+    <cellStyle name="常规 2 3 2 5 2 2" xfId="467"/>
+    <cellStyle name="常规 2 4 3 2 5" xfId="468"/>
+    <cellStyle name="常规 2 2 2 2 3 3" xfId="469"/>
+    <cellStyle name="常规 2 6 2 2 4" xfId="470"/>
+    <cellStyle name="常规 2 3 3 3 3" xfId="471"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="472" builtinId="31"/>
+    <cellStyle name="常规 2 3 9" xfId="473"/>
+    <cellStyle name="常规 2 2 2 4" xfId="474"/>
+    <cellStyle name="常规 2 2 8" xfId="475"/>
+    <cellStyle name="常规 2 2 2 2 2 3 2 2" xfId="476"/>
+    <cellStyle name="常规 2 2 4 2 4 3" xfId="477"/>
+    <cellStyle name="常规 2 2 2 2 2 2 4" xfId="478"/>
+    <cellStyle name="常规 2 3 2 4 4" xfId="479"/>
+    <cellStyle name="常规 2 2 2 2 2 2 3" xfId="480"/>
+    <cellStyle name="常规 2 4 4 2 2" xfId="481"/>
+    <cellStyle name="常规 2 2 2 2 2 2 2 3" xfId="482"/>
+    <cellStyle name="常规 2 4 4 2 2 3" xfId="483"/>
+    <cellStyle name="常规 2 2 3 2 4 2 2" xfId="484"/>
+    <cellStyle name="常规 2 2 3 6 4" xfId="485"/>
+    <cellStyle name="常规 2 4 4 2 2 2" xfId="486"/>
+    <cellStyle name="常规 2 5 2 3 2 3" xfId="487"/>
+    <cellStyle name="常规 2 3 2 4 3" xfId="488"/>
+    <cellStyle name="常规 2 2 2 2 2 2 2" xfId="489"/>
+    <cellStyle name="常规 2 3 7 2" xfId="490"/>
+    <cellStyle name="常规 2 2 2 2 2" xfId="491"/>
+    <cellStyle name="常规 2 3 2 7" xfId="492"/>
+    <cellStyle name="常规 2 2 3 4 4" xfId="493"/>
+    <cellStyle name="常规 2 4 4 2" xfId="494"/>
+    <cellStyle name="常规 2 4 3 2 2 4" xfId="495"/>
+    <cellStyle name="常规 2 3 2 2 7" xfId="496"/>
+    <cellStyle name="常规 2 2 12" xfId="497"/>
+    <cellStyle name="常规 2 5 8" xfId="498"/>
+    <cellStyle name="常规 2 2 4 3" xfId="499"/>
+    <cellStyle name="常规 2 5 2 2 2 2 3" xfId="500"/>
+    <cellStyle name="常规 2 3 2 2 6" xfId="501"/>
+    <cellStyle name="常规 2 2 11" xfId="502"/>
+    <cellStyle name="常规 2 5 7" xfId="503"/>
+    <cellStyle name="常规 2 2 4 2" xfId="504"/>
+    <cellStyle name="常规 2 3 2 2 5 3" xfId="505"/>
+    <cellStyle name="常规 2 5 2 2 2 2 2" xfId="506"/>
+    <cellStyle name="常规 2 6 3 2 2 3" xfId="507"/>
+    <cellStyle name="常规 2 3 2 2 5" xfId="508"/>
+    <cellStyle name="常规 2 2 10" xfId="509"/>
+    <cellStyle name="常规 2 2 2 7 3" xfId="510"/>
+    <cellStyle name="常规 2 2 5 6" xfId="511"/>
+    <cellStyle name="常规 2 5 3 2 2 3" xfId="512"/>
+    <cellStyle name="常规 2 10 2 2" xfId="513"/>
+    <cellStyle name="常规 2 2 3 3 3 4" xfId="514"/>
+    <cellStyle name="常规 2 2 2 2 2 2" xfId="515"/>
+    <cellStyle name="常规 2 4 2 2 4 4" xfId="516"/>
+    <cellStyle name="常规 2 2 3 2 2 6" xfId="517"/>
+    <cellStyle name="常规 2 5 2 4 2 3" xfId="518"/>
+    <cellStyle name="常规 2 3 3 4 3" xfId="519"/>
+    <cellStyle name="常规 2 2 2 2 3 2 2" xfId="520"/>
+    <cellStyle name="常规 2 2 5 4" xfId="521"/>
+    <cellStyle name="千位分隔" xfId="522" builtinId="3"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="523" builtinId="51"/>
+    <cellStyle name="常规 2 2 2 9" xfId="524"/>
+    <cellStyle name="常规 2 5 2 5 3" xfId="525"/>
+    <cellStyle name="常规 2 3 4 5" xfId="526"/>
+    <cellStyle name="常规 2 2 3 6 2" xfId="527"/>
+    <cellStyle name="常规 2 4 2 6 2" xfId="528"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="529" builtinId="47"/>
+    <cellStyle name="常规 2 2 2 8" xfId="530"/>
+    <cellStyle name="常规 2 3 2 8" xfId="531"/>
+    <cellStyle name="常规 2 2 3 2 2 4 2" xfId="532"/>
+    <cellStyle name="常规 2 2 2 2 2 3 4" xfId="533"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="534" builtinId="39"/>
+    <cellStyle name="常规 2 2 2 4 3" xfId="535"/>
+    <cellStyle name="常规 2 2 2 6" xfId="536"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="537" builtinId="48"/>
+    <cellStyle name="常规 2 5 3 4" xfId="538"/>
+    <cellStyle name="输出" xfId="539" builtinId="21"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="540" builtinId="46"/>
+    <cellStyle name="常规 2 3 3 2 2 4" xfId="541"/>
+    <cellStyle name="警告文本" xfId="542" builtinId="11"/>
+    <cellStyle name="常规 2 2 2 2 2 3" xfId="543"/>
+    <cellStyle name="常规 2 4 2 4 3" xfId="544"/>
+    <cellStyle name="常规 2 2 2 3 2 2 2" xfId="545"/>
+    <cellStyle name="常规 2 2 2 3 3 4" xfId="546"/>
+    <cellStyle name="常规 2 2 7 2 3" xfId="547"/>
+    <cellStyle name="百分比 2" xfId="548"/>
+    <cellStyle name="常规 2 10 2 3" xfId="549"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="550" builtinId="32"/>
+    <cellStyle name="百分比" xfId="551" builtinId="5"/>
+    <cellStyle name="常规 2 2 3 3 2 2 2" xfId="552"/>
+    <cellStyle name="常规 2 3 3 2 5" xfId="553"/>
+    <cellStyle name="常规 2 9 5" xfId="554"/>
+    <cellStyle name="常规 2 2 2 2 2 2 2 2" xfId="555"/>
+    <cellStyle name="常规 2 2 2 2 4 3" xfId="556"/>
+    <cellStyle name="常规 2 2 3 2 6 2" xfId="557"/>
+    <cellStyle name="常规 2 5 4" xfId="558"/>
+    <cellStyle name="常规 2 4 2 5 2 3" xfId="559"/>
+    <cellStyle name="常规 2 10 4" xfId="560"/>
+    <cellStyle name="常规 2 3 3 2 3 2" xfId="561"/>
+    <cellStyle name="常规 2 2 3 2 2 4" xfId="562"/>
+    <cellStyle name="常规 2 4 2 8" xfId="563"/>
+    <cellStyle name="常规 2 9" xfId="564"/>
+    <cellStyle name="常规 2 8 2 2 2" xfId="565"/>
+    <cellStyle name="常规 2 4 2 3" xfId="566"/>
+    <cellStyle name="常规 2 4 2 2 2 2 2" xfId="567"/>
+    <cellStyle name="已访问的超链接" xfId="568" builtinId="9"/>
+    <cellStyle name="常规 2 2 3 2 2 5" xfId="569"/>
+    <cellStyle name="常规 2 3 3 2 3 3" xfId="570"/>
+    <cellStyle name="常规 2 2 3" xfId="571"/>
+    <cellStyle name="常规 2 2 2 2 5 2 3" xfId="572"/>
+    <cellStyle name="常规 2 2 3 2 3 3" xfId="573"/>
+    <cellStyle name="标题 4" xfId="574" builtinId="19"/>
+    <cellStyle name="常规 2 2 2 3 2" xfId="575"/>
+    <cellStyle name="常规 2 11" xfId="576"/>
+    <cellStyle name="常规 2 2 4 2 3 3" xfId="577"/>
+    <cellStyle name="常规 2 3 3 2 2 2 2" xfId="578"/>
+    <cellStyle name="常规 2 4 4" xfId="579"/>
+    <cellStyle name="标题 2" xfId="580" builtinId="17"/>
+    <cellStyle name="常规 2 2 3 9" xfId="581"/>
+    <cellStyle name="常规 2 3 3 4 4" xfId="582"/>
+    <cellStyle name="常规 2 2 2 2 3 2 3" xfId="583"/>
+    <cellStyle name="常规 2 5 4 3" xfId="584"/>
+    <cellStyle name="计算" xfId="585" builtinId="22"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="586" builtinId="43"/>
+    <cellStyle name="强调文字颜色 4" xfId="587" builtinId="41"/>
+    <cellStyle name="常规 2 4 2" xfId="588"/>
+    <cellStyle name="常规 6" xfId="589"/>
+    <cellStyle name="常规 2 2 3 2 2 3 2 2" xfId="590"/>
+    <cellStyle name="常规 2 4 4 2 3" xfId="591"/>
+    <cellStyle name="常规 2 3 2 5 4" xfId="592"/>
+    <cellStyle name="差" xfId="593" builtinId="27"/>
+    <cellStyle name="常规 2 2 2 2 2 3 3" xfId="594"/>
+    <cellStyle name="常规 2 5 3 3" xfId="595"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="596" builtinId="42"/>
+    <cellStyle name="常规 2 2 2 3 2 3" xfId="597"/>
+    <cellStyle name="常规 2 11 3" xfId="598"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="599" builtinId="40"/>
+    <cellStyle name="常规 2 6 4 2" xfId="600"/>
+    <cellStyle name="输入" xfId="601" builtinId="20"/>
+    <cellStyle name="常规 2 5 2 6" xfId="602"/>
+    <cellStyle name="常规 2 2 5 4 3" xfId="603"/>
+    <cellStyle name="常规 2 2 9 3" xfId="604"/>
+    <cellStyle name="常规 2 10 3" xfId="605"/>
+    <cellStyle name="强调文字颜色 3" xfId="606" builtinId="37"/>
+    <cellStyle name="常规 2 5 3 2" xfId="607"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="608" builtinId="38"/>
+    <cellStyle name="解释性文本" xfId="609" builtinId="53"/>
+    <cellStyle name="常规 2 4 4 3 2" xfId="610"/>
+    <cellStyle name="常规 2 2 5 2 4" xfId="611"/>
+    <cellStyle name="常规 2 2 7 4" xfId="612"/>
+    <cellStyle name="常规 2 3 2 2 4 2 3" xfId="613"/>
+    <cellStyle name="常规 2 5 2 5 2" xfId="614"/>
+    <cellStyle name="常规 2 3 4 4" xfId="615"/>
+    <cellStyle name="常规 2 2 4 2 2 2 3" xfId="616"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="617" builtinId="36"/>
+    <cellStyle name="常规 2 5 4 3 3" xfId="618"/>
+    <cellStyle name="常规 2 5 2 5" xfId="619"/>
+    <cellStyle name="常规 2 2 5 4 2" xfId="620"/>
+    <cellStyle name="常规 2 2 9 2" xfId="621"/>
+    <cellStyle name="常规 2 10 2" xfId="622"/>
+    <cellStyle name="常规 2 3 3 2 2 2 3" xfId="623"/>
+    <cellStyle name="常规 2 2 4 2 3 4" xfId="624"/>
+    <cellStyle name="常规 5" xfId="625"/>
+    <cellStyle name="常规 2 2 2 2 8" xfId="626"/>
+    <cellStyle name="强调文字颜色 2" xfId="627" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="628" builtinId="44"/>
+    <cellStyle name="常规 4" xfId="629"/>
+    <cellStyle name="常规 2 2 2 2 7" xfId="630"/>
+    <cellStyle name="常规 2 4 5 4" xfId="631"/>
+    <cellStyle name="强调文字颜色 1" xfId="632" builtinId="29"/>
+    <cellStyle name="常规 2 2 3 2 3 2" xfId="633"/>
+    <cellStyle name="标题 3" xfId="634" builtinId="18"/>
+    <cellStyle name="常规 2 2 2 3 3 3" xfId="635"/>
+    <cellStyle name="常规 2 2 3 2 2 3 2 3" xfId="636"/>
+    <cellStyle name="常规 2 2 3 2 4 3" xfId="637"/>
+    <cellStyle name="常规 2 2 3 2 5 2 3" xfId="638"/>
+    <cellStyle name="常规 2 9 2 3" xfId="639"/>
+    <cellStyle name="常规 2 4 2 3 2 3" xfId="640"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="641" builtinId="30"/>
+    <cellStyle name="常规 2 3 7 3" xfId="642"/>
+    <cellStyle name="常规 2 2 2 2 3" xfId="643"/>
+    <cellStyle name="检查单元格" xfId="644" builtinId="23"/>
+    <cellStyle name="常规 2 2 4 2 4" xfId="645"/>
+    <cellStyle name="常规 2 2 2 2 2 4 3" xfId="646"/>
+    <cellStyle name="常规 2 7 2 2 2" xfId="647"/>
+    <cellStyle name="常规 2 2 4" xfId="648"/>
+    <cellStyle name="常规 2 2 4 3 2 2" xfId="649"/>
+    <cellStyle name="标题 1" xfId="650" builtinId="16"/>
+    <cellStyle name="常规 2 4 4 2 4" xfId="651"/>
+    <cellStyle name="常规 2 2 4 3 2 3" xfId="652"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="653" builtinId="34"/>
+    <cellStyle name="常规 2 3 5 2 2" xfId="654"/>
+    <cellStyle name="常规 2 2 2 3 2 4" xfId="655"/>
+    <cellStyle name="常规 2 2 8 3" xfId="656"/>
+    <cellStyle name="常规 2 4 4 5" xfId="657"/>
+    <cellStyle name="常规 2 2 4 6 2" xfId="658"/>
+    <cellStyle name="常规 2 3 2 3" xfId="659"/>
+    <cellStyle name="货币[0]" xfId="660" builtinId="7"/>
+    <cellStyle name="常规 2 2 3 6 2 3" xfId="661"/>
+    <cellStyle name="常规 2 2 3 7 2" xfId="662"/>
+    <cellStyle name="标题" xfId="663" builtinId="15"/>
+    <cellStyle name="常规 3" xfId="664"/>
+    <cellStyle name="常规 2 2 2 2 6" xfId="665"/>
+    <cellStyle name="常规 2 5 2 2 2 4" xfId="666"/>
+    <cellStyle name="常规 2 6 2 2 2 2" xfId="667"/>
+    <cellStyle name="常规 2 2 2 2 4" xfId="668"/>
+    <cellStyle name="常规 2 2 3 2 3 4" xfId="669"/>
+    <cellStyle name="常规 2 3 6 2 3" xfId="670"/>
+    <cellStyle name="常规 2 2 2 2 2 5" xfId="671"/>
+    <cellStyle name="注释" xfId="672" builtinId="10"/>
+    <cellStyle name="常规 2 2 8 2" xfId="673"/>
+    <cellStyle name="常规 2 5 3 5" xfId="674"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="675" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="676" builtinId="45"/>
+    <cellStyle name="链接单元格" xfId="677" builtinId="24"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -3487,7 +3432,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -3805,16 +3750,17 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A13" sqref="$A13:$XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3826,7 +3772,7 @@
     <col min="7" max="7" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:7">
+    <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4110,12 +4056,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="$A11:$XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4124,7 +4070,7 @@
     <col min="2" max="6" width="5.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:6">
+    <row r="1" spans="1:6">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
@@ -4332,12 +4278,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="A5" sqref="$A5:$XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -4346,7 +4292,7 @@
     <col min="2" max="2" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:2">
+    <row r="1" spans="1:2">
       <c r="A1" s="9" t="s">
         <v>13</v>
       </c>
@@ -4354,7 +4300,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:2">
+    <row r="2" spans="1:2">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -4362,7 +4308,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:2">
+    <row r="3" spans="1:2">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -4370,7 +4316,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:2">
+    <row r="4" spans="1:2">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -4385,12 +4331,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="G90" workbookViewId="0">
+      <selection activeCell="G102" sqref="$A102:$XFD110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4459,7 +4405,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:16">
+    <row r="2" spans="1:16">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -4509,7 +4455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:16">
+    <row r="3" spans="1:16">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -4559,7 +4505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:16">
+    <row r="4" spans="1:16">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -4609,7 +4555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:16">
+    <row r="5" spans="1:16">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -4659,7 +4605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:16">
+    <row r="6" spans="1:16">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -4709,7 +4655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:16">
+    <row r="7" spans="1:16">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -4759,7 +4705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:16">
+    <row r="8" spans="1:16">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -4809,7 +4755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:16">
+    <row r="9" spans="1:16">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -4859,7 +4805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:16">
+    <row r="10" spans="1:16">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -4909,7 +4855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:16">
+    <row r="11" spans="1:16">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -4959,7 +4905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:16">
+    <row r="12" spans="1:16">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -5009,7 +4955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:16">
+    <row r="13" spans="1:16">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -5059,7 +5005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:16">
+    <row r="14" spans="1:16">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -5109,7 +5055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:16">
+    <row r="15" spans="1:16">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -5159,7 +5105,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:16">
+    <row r="16" spans="1:16">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -5209,7 +5155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="1:16">
+    <row r="17" spans="1:16">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -5259,7 +5205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="1:16">
+    <row r="18" spans="1:16">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -5309,7 +5255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="1:16">
+    <row r="19" spans="1:16">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -5359,7 +5305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="1:16">
+    <row r="20" spans="1:16">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -5409,7 +5355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="1:16">
+    <row r="21" spans="1:16">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -5459,7 +5405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" ht="14.25" spans="1:16">
+    <row r="22" spans="1:16">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -5509,7 +5455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="1:16">
+    <row r="23" spans="1:16">
       <c r="A23" s="5">
         <v>21</v>
       </c>
@@ -5559,7 +5505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" ht="14.25" spans="1:16">
+    <row r="24" spans="1:16">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -5609,7 +5555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" ht="14.25" spans="1:16">
+    <row r="25" spans="1:16">
       <c r="A25" s="5">
         <v>23</v>
       </c>
@@ -5659,7 +5605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" ht="14.25" spans="1:16">
+    <row r="26" spans="1:16">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -5709,7 +5655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" ht="14.25" spans="1:16">
+    <row r="27" spans="1:16">
       <c r="A27" s="5">
         <v>25</v>
       </c>
@@ -5759,7 +5705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" ht="14.25" spans="1:16">
+    <row r="28" spans="1:16">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -5809,7 +5755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" ht="14.25" spans="1:16">
+    <row r="29" spans="1:16">
       <c r="A29" s="5">
         <v>27</v>
       </c>
@@ -5859,7 +5805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" ht="14.25" spans="1:16">
+    <row r="30" spans="1:16">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -5909,7 +5855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" ht="14.25" spans="1:16">
+    <row r="31" spans="1:16">
       <c r="A31" s="5">
         <v>29</v>
       </c>
@@ -5959,7 +5905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" ht="14.25" spans="1:16">
+    <row r="32" spans="1:16">
       <c r="A32" s="5">
         <v>30</v>
       </c>
@@ -6009,7 +5955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" ht="14.25" spans="1:16">
+    <row r="33" spans="1:16">
       <c r="A33" s="5">
         <v>31</v>
       </c>
@@ -6059,7 +6005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" ht="14.25" spans="1:16">
+    <row r="34" spans="1:16">
       <c r="A34" s="5">
         <v>32</v>
       </c>
@@ -6109,7 +6055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" ht="14.25" spans="1:16">
+    <row r="35" spans="1:16">
       <c r="A35" s="5">
         <v>33</v>
       </c>
@@ -6159,7 +6105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" ht="14.25" spans="1:16">
+    <row r="36" spans="1:16">
       <c r="A36" s="5">
         <v>34</v>
       </c>
@@ -6209,7 +6155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" ht="14.25" spans="1:16">
+    <row r="37" spans="1:16">
       <c r="A37" s="5">
         <v>35</v>
       </c>
@@ -6259,7 +6205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" ht="14.25" spans="1:16">
+    <row r="38" spans="1:16">
       <c r="A38" s="5">
         <v>36</v>
       </c>
@@ -6309,7 +6255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" ht="14.25" spans="1:16">
+    <row r="39" spans="1:16">
       <c r="A39" s="5">
         <v>37</v>
       </c>
@@ -6359,7 +6305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" ht="14.25" spans="1:16">
+    <row r="40" spans="1:16">
       <c r="A40" s="5">
         <v>38</v>
       </c>
@@ -6409,7 +6355,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" ht="14.25" spans="1:16">
+    <row r="41" spans="1:16">
       <c r="A41" s="5">
         <v>39</v>
       </c>
@@ -6459,7 +6405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" ht="14.25" spans="1:16">
+    <row r="42" spans="1:16">
       <c r="A42" s="5">
         <v>40</v>
       </c>
@@ -6509,7 +6455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" ht="14.25" spans="1:16">
+    <row r="43" spans="1:16">
       <c r="A43" s="5">
         <v>41</v>
       </c>
@@ -6559,7 +6505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" ht="14.25" spans="1:16">
+    <row r="44" spans="1:16">
       <c r="A44" s="5">
         <v>42</v>
       </c>
@@ -6609,7 +6555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" ht="14.25" spans="1:16">
+    <row r="45" spans="1:16">
       <c r="A45" s="5">
         <v>43</v>
       </c>
@@ -6659,7 +6605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" ht="14.25" spans="1:16">
+    <row r="46" spans="1:16">
       <c r="A46" s="5">
         <v>44</v>
       </c>
@@ -6709,7 +6655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" ht="14.25" spans="1:16">
+    <row r="47" spans="1:16">
       <c r="A47" s="5">
         <v>45</v>
       </c>
@@ -6759,7 +6705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" ht="14.25" spans="1:16">
+    <row r="48" spans="1:16">
       <c r="A48" s="5">
         <v>46</v>
       </c>
@@ -6809,7 +6755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" ht="14.25" spans="1:16">
+    <row r="49" spans="1:16">
       <c r="A49" s="5">
         <v>47</v>
       </c>
@@ -6859,7 +6805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" ht="14.25" spans="1:16">
+    <row r="50" spans="1:16">
       <c r="A50" s="5">
         <v>48</v>
       </c>
@@ -6909,7 +6855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" ht="14.25" spans="1:16">
+    <row r="51" spans="1:16">
       <c r="A51" s="5">
         <v>49</v>
       </c>
@@ -6959,7 +6905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" ht="14.25" spans="1:16">
+    <row r="52" spans="1:16">
       <c r="A52" s="5">
         <v>50</v>
       </c>
@@ -7009,7 +6955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" ht="14.25" spans="1:16">
+    <row r="53" spans="1:16">
       <c r="A53" s="5">
         <v>51</v>
       </c>
@@ -7059,7 +7005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" ht="14.25" spans="1:16">
+    <row r="54" spans="1:16">
       <c r="A54" s="5">
         <v>52</v>
       </c>
@@ -7109,7 +7055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" ht="14.25" spans="1:16">
+    <row r="55" spans="1:16">
       <c r="A55" s="5">
         <v>53</v>
       </c>
@@ -7159,7 +7105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" ht="14.25" spans="1:16">
+    <row r="56" spans="1:16">
       <c r="A56" s="5">
         <v>54</v>
       </c>
@@ -7209,7 +7155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" ht="14.25" spans="1:16">
+    <row r="57" spans="1:16">
       <c r="A57" s="5">
         <v>55</v>
       </c>
@@ -7259,7 +7205,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" ht="14.25" spans="1:16">
+    <row r="58" spans="1:16">
       <c r="A58" s="5">
         <v>56</v>
       </c>
@@ -7309,7 +7255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" ht="14.25" spans="1:16">
+    <row r="59" spans="1:16">
       <c r="A59" s="5">
         <v>57</v>
       </c>
@@ -7359,7 +7305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" ht="14.25" spans="1:16">
+    <row r="60" spans="1:16">
       <c r="A60" s="5">
         <v>58</v>
       </c>
@@ -7409,7 +7355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" ht="14.25" spans="1:16">
+    <row r="61" spans="1:16">
       <c r="A61" s="5">
         <v>59</v>
       </c>
@@ -7459,7 +7405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" ht="14.25" spans="1:16">
+    <row r="62" spans="1:16">
       <c r="A62" s="5">
         <v>60</v>
       </c>
@@ -7509,7 +7455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" ht="14.25" spans="1:16">
+    <row r="63" spans="1:16">
       <c r="A63" s="5">
         <v>61</v>
       </c>
@@ -7559,7 +7505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" ht="14.25" spans="1:16">
+    <row r="64" spans="1:16">
       <c r="A64" s="5">
         <v>62</v>
       </c>
@@ -7609,7 +7555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" ht="14.25" spans="1:16">
+    <row r="65" spans="1:16">
       <c r="A65" s="5">
         <v>63</v>
       </c>
@@ -7659,7 +7605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" ht="14.25" spans="1:16">
+    <row r="66" spans="1:16">
       <c r="A66" s="5">
         <v>64</v>
       </c>
@@ -7709,7 +7655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" ht="14.25" spans="1:16">
+    <row r="67" spans="1:16">
       <c r="A67" s="5">
         <v>65</v>
       </c>
@@ -7759,7 +7705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" ht="14.25" spans="1:16">
+    <row r="68" spans="1:16">
       <c r="A68" s="5">
         <v>66</v>
       </c>
@@ -7809,7 +7755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" ht="14.25" spans="1:16">
+    <row r="69" spans="1:16">
       <c r="A69" s="5">
         <v>67</v>
       </c>
@@ -7859,7 +7805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" ht="14.25" spans="1:16">
+    <row r="70" spans="1:16">
       <c r="A70" s="5">
         <v>68</v>
       </c>
@@ -7909,7 +7855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" ht="14.25" spans="1:16">
+    <row r="71" spans="1:16">
       <c r="A71" s="5">
         <v>69</v>
       </c>
@@ -7959,7 +7905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" ht="14.25" spans="1:16">
+    <row r="72" spans="1:16">
       <c r="A72" s="5">
         <v>70</v>
       </c>
@@ -8009,7 +7955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" ht="14.25" spans="1:16">
+    <row r="73" spans="1:16">
       <c r="A73" s="5">
         <v>71</v>
       </c>
@@ -8059,7 +8005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" ht="14.25" spans="1:16">
+    <row r="74" spans="1:16">
       <c r="A74" s="5">
         <v>72</v>
       </c>
@@ -8109,7 +8055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" ht="14.25" spans="1:16">
+    <row r="75" spans="1:16">
       <c r="A75" s="5">
         <v>73</v>
       </c>
@@ -8159,7 +8105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" ht="14.25" spans="1:16">
+    <row r="76" spans="1:16">
       <c r="A76" s="5">
         <v>74</v>
       </c>
@@ -8209,7 +8155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" ht="14.25" spans="1:16">
+    <row r="77" spans="1:16">
       <c r="A77" s="5">
         <v>75</v>
       </c>
@@ -8259,7 +8205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" ht="14.25" spans="1:16">
+    <row r="78" spans="1:16">
       <c r="A78" s="5">
         <v>76</v>
       </c>
@@ -8309,7 +8255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" ht="14.25" spans="1:16">
+    <row r="79" spans="1:16">
       <c r="A79" s="5">
         <v>77</v>
       </c>
@@ -8359,7 +8305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" ht="14.25" spans="1:16">
+    <row r="80" spans="1:16">
       <c r="A80" s="5">
         <v>78</v>
       </c>
@@ -8409,7 +8355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" ht="14.25" spans="1:16">
+    <row r="81" spans="1:16">
       <c r="A81" s="5">
         <v>79</v>
       </c>
@@ -8459,7 +8405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" ht="14.25" spans="1:16">
+    <row r="82" spans="1:16">
       <c r="A82" s="5">
         <v>80</v>
       </c>
@@ -8509,7 +8455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" ht="14.25" spans="1:16">
+    <row r="83" spans="1:16">
       <c r="A83" s="5">
         <v>81</v>
       </c>
@@ -8559,7 +8505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" ht="14.25" spans="1:16">
+    <row r="84" spans="1:16">
       <c r="A84" s="5">
         <v>82</v>
       </c>
@@ -8609,7 +8555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" ht="14.25" spans="1:16">
+    <row r="85" spans="1:16">
       <c r="A85" s="5">
         <v>83</v>
       </c>
@@ -8659,7 +8605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" ht="14.25" spans="1:16">
+    <row r="86" spans="1:16">
       <c r="A86" s="5">
         <v>84</v>
       </c>
@@ -8709,7 +8655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" ht="14.25" spans="1:16">
+    <row r="87" spans="1:16">
       <c r="A87" s="5">
         <v>85</v>
       </c>
@@ -8759,7 +8705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" ht="14.25" spans="1:16">
+    <row r="88" spans="1:16">
       <c r="A88" s="5">
         <v>86</v>
       </c>
@@ -8809,7 +8755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" ht="14.25" spans="1:16">
+    <row r="89" spans="1:16">
       <c r="A89" s="5">
         <v>87</v>
       </c>
@@ -8859,7 +8805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" ht="14.25" spans="1:16">
+    <row r="90" spans="1:16">
       <c r="A90" s="5">
         <v>88</v>
       </c>
@@ -8909,7 +8855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" ht="14.25" spans="1:16">
+    <row r="91" spans="1:16">
       <c r="A91" s="5">
         <v>89</v>
       </c>
@@ -8959,7 +8905,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" ht="14.25" spans="1:16">
+    <row r="92" spans="1:16">
       <c r="A92" s="5">
         <v>90</v>
       </c>
@@ -9009,7 +8955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" ht="14.25" spans="1:16">
+    <row r="93" spans="1:16">
       <c r="A93" s="5">
         <v>91</v>
       </c>
@@ -9059,7 +9005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" ht="14.25" spans="1:16">
+    <row r="94" spans="1:16">
       <c r="A94" s="5">
         <v>92</v>
       </c>
@@ -9109,7 +9055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" ht="14.25" spans="1:16">
+    <row r="95" spans="1:16">
       <c r="A95" s="5">
         <v>93</v>
       </c>
@@ -9159,7 +9105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" ht="14.25" spans="1:16">
+    <row r="96" spans="1:16">
       <c r="A96" s="5">
         <v>94</v>
       </c>
@@ -9209,7 +9155,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" ht="14.25" spans="1:16">
+    <row r="97" spans="1:16">
       <c r="A97" s="5">
         <v>95</v>
       </c>
@@ -9259,7 +9205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" ht="14.25" spans="1:16">
+    <row r="98" spans="1:16">
       <c r="A98" s="5">
         <v>96</v>
       </c>
@@ -9309,7 +9255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" ht="14.25" spans="1:16">
+    <row r="99" spans="1:16">
       <c r="A99" s="5">
         <v>97</v>
       </c>
@@ -9359,7 +9305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" ht="14.25" spans="1:16">
+    <row r="100" spans="1:16">
       <c r="A100" s="5">
         <v>98</v>
       </c>
@@ -9409,7 +9355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" ht="14.25" spans="1:16">
+    <row r="101" spans="1:16">
       <c r="A101" s="5">
         <v>99</v>
       </c>
